--- a/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
@@ -427,7 +427,7 @@
         <v>0.9976058620351572</v>
       </c>
       <c r="E2">
-        <v>0.9788323476556087</v>
+        <v>0.9788323476556088</v>
       </c>
       <c r="F2">
         <v>0.9299349905858351</v>
@@ -445,10 +445,10 @@
         <v>1.009098652081114</v>
       </c>
       <c r="L2">
-        <v>0.9905946766900363</v>
+        <v>0.9905946766900364</v>
       </c>
       <c r="M2">
-        <v>0.9424651765114173</v>
+        <v>0.9424651765114175</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9824528093051077</v>
+        <v>0.9824528093051058</v>
       </c>
       <c r="D3">
-        <v>1.004180612625526</v>
+        <v>1.004180612625524</v>
       </c>
       <c r="E3">
-        <v>0.9867551758858467</v>
+        <v>0.9867551758858446</v>
       </c>
       <c r="F3">
-        <v>0.9441225905687558</v>
+        <v>0.9441225905687542</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038133131992964</v>
+        <v>1.038133131992963</v>
       </c>
       <c r="J3">
-        <v>1.003433533555085</v>
+        <v>1.003433533555083</v>
       </c>
       <c r="K3">
-        <v>1.014760279747119</v>
+        <v>1.014760279747116</v>
       </c>
       <c r="L3">
-        <v>0.9975603795570117</v>
+        <v>0.9975603795570097</v>
       </c>
       <c r="M3">
-        <v>0.9555241443766019</v>
+        <v>0.9555241443766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9877837069946556</v>
+        <v>0.9877837069946548</v>
       </c>
       <c r="D4">
         <v>1.008264430083828</v>
       </c>
       <c r="E4">
-        <v>0.9916716720828631</v>
+        <v>0.9916716720828623</v>
       </c>
       <c r="F4">
-        <v>0.9528659007513121</v>
+        <v>0.9528659007513107</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.039871155470058</v>
       </c>
       <c r="J4">
-        <v>1.007505154560559</v>
+        <v>1.007505154560558</v>
       </c>
       <c r="K4">
-        <v>1.018264123622524</v>
+        <v>1.018264123622523</v>
       </c>
       <c r="L4">
         <v>1.001871662950696</v>
       </c>
       <c r="M4">
-        <v>0.9635685725791959</v>
+        <v>0.9635685725791948</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9899754574244808</v>
+        <v>0.9899754574244807</v>
       </c>
       <c r="D5">
         <v>1.009943454848787</v>
@@ -544,13 +544,13 @@
         <v>0.9936922765255353</v>
       </c>
       <c r="F5">
-        <v>0.9564469449691299</v>
+        <v>0.9564469449691303</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040580963014318</v>
+        <v>1.040580963014317</v>
       </c>
       <c r="J5">
         <v>1.009176663365999</v>
@@ -562,7 +562,7 @@
         <v>1.003640902951932</v>
       </c>
       <c r="M5">
-        <v>0.9668624423510611</v>
+        <v>0.9668624423510616</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9903406774904463</v>
+        <v>0.9903406774904469</v>
       </c>
       <c r="D6">
-        <v>1.010223233197973</v>
+        <v>1.010223233197974</v>
       </c>
       <c r="E6">
-        <v>0.9940289368736323</v>
+        <v>0.9940289368736325</v>
       </c>
       <c r="F6">
-        <v>0.9570429301266522</v>
+        <v>0.9570429301266525</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.003935529609363</v>
       </c>
       <c r="M6">
-        <v>0.9674105756904242</v>
+        <v>0.9674105756904243</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.98781318216642</v>
+        <v>0.9878131821664201</v>
       </c>
       <c r="D7">
-        <v>1.008287010193736</v>
+        <v>1.008287010193737</v>
       </c>
       <c r="E7">
-        <v>0.991698848495126</v>
+        <v>0.9916988484951265</v>
       </c>
       <c r="F7">
-        <v>0.9529141106668687</v>
+        <v>0.95291411066687</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.039880720115177</v>
       </c>
       <c r="J7">
-        <v>1.007527643287096</v>
+        <v>1.007527643287097</v>
       </c>
       <c r="K7">
         <v>1.018283468502748</v>
@@ -638,7 +638,7 @@
         <v>1.001895468950784</v>
       </c>
       <c r="M7">
-        <v>0.9636129202453535</v>
+        <v>0.9636129202453545</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9768188533986051</v>
+        <v>0.9768188533986039</v>
       </c>
       <c r="D8">
-        <v>0.9998650705053691</v>
+        <v>0.9998650705053679</v>
       </c>
       <c r="E8">
-        <v>0.9815560056609134</v>
+        <v>0.9815560056609122</v>
       </c>
       <c r="F8">
-        <v>0.9348267695664524</v>
+        <v>0.9348267695664496</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036279727411745</v>
+        <v>1.036279727411744</v>
       </c>
       <c r="J8">
-        <v>0.9991215484271821</v>
+        <v>0.9991215484271811</v>
       </c>
       <c r="K8">
-        <v>1.011046869806677</v>
+        <v>1.011046869806675</v>
       </c>
       <c r="L8">
-        <v>0.9929917476699612</v>
+        <v>0.99299174766996</v>
       </c>
       <c r="M8">
-        <v>0.9469684403552591</v>
+        <v>0.9469684403552564</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -693,10 +693,10 @@
         <v>0.9835576597370155</v>
       </c>
       <c r="E9">
-        <v>0.9618570927217031</v>
+        <v>0.9618570927217033</v>
       </c>
       <c r="F9">
-        <v>0.8990541973375731</v>
+        <v>0.899054197337574</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.029141393697829</v>
       </c>
       <c r="J9">
-        <v>0.9827406952662943</v>
+        <v>0.9827406952662946</v>
       </c>
       <c r="K9">
-        <v>0.9969232571170942</v>
+        <v>0.9969232571170941</v>
       </c>
       <c r="L9">
-        <v>0.9756008898036632</v>
+        <v>0.9756008898036637</v>
       </c>
       <c r="M9">
-        <v>0.9140290125909374</v>
+        <v>0.9140290125909385</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9396218508293961</v>
+        <v>0.9396218508293952</v>
       </c>
       <c r="D10">
-        <v>0.9714176262261814</v>
+        <v>0.9714176262261806</v>
       </c>
       <c r="E10">
-        <v>0.9471134404660555</v>
+        <v>0.9471134404660544</v>
       </c>
       <c r="F10">
-        <v>0.8715724885586191</v>
+        <v>0.8715724885586176</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023711244988967</v>
+        <v>1.023711244988966</v>
       </c>
       <c r="J10">
-        <v>0.970454178352306</v>
+        <v>0.970454178352305</v>
       </c>
       <c r="K10">
-        <v>0.9863228600043158</v>
+        <v>0.9863228600043148</v>
       </c>
       <c r="L10">
-        <v>0.9625080709612976</v>
+        <v>0.9625080709612964</v>
       </c>
       <c r="M10">
-        <v>0.8887249310147658</v>
+        <v>0.8887249310147641</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.932221078654032</v>
+        <v>0.9322210786540304</v>
       </c>
       <c r="D11">
-        <v>0.9657728601175576</v>
+        <v>0.9657728601175564</v>
       </c>
       <c r="E11">
-        <v>0.9402271118470426</v>
+        <v>0.9402271118470409</v>
       </c>
       <c r="F11">
-        <v>0.8584801838802971</v>
+        <v>0.8584801838802955</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021157980864777</v>
       </c>
       <c r="J11">
-        <v>0.9647131306436491</v>
+        <v>0.9647131306436474</v>
       </c>
       <c r="K11">
-        <v>0.9813704633276328</v>
+        <v>0.9813704633276314</v>
       </c>
       <c r="L11">
-        <v>0.9563717209454261</v>
+        <v>0.9563717209454246</v>
       </c>
       <c r="M11">
-        <v>0.8766755526399496</v>
+        <v>0.8766755526399477</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9293801305930326</v>
+        <v>0.929380130593033</v>
       </c>
       <c r="D12">
-        <v>0.963607724572959</v>
+        <v>0.9636077245729592</v>
       </c>
       <c r="E12">
-        <v>0.9375796612193391</v>
+        <v>0.9375796612193397</v>
       </c>
       <c r="F12">
-        <v>0.8533976266473791</v>
+        <v>0.8533976266473797</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020174271956752</v>
       </c>
       <c r="J12">
-        <v>0.9625061021784815</v>
+        <v>0.9625061021784822</v>
       </c>
       <c r="K12">
-        <v>0.9794670104796539</v>
+        <v>0.9794670104796542</v>
       </c>
       <c r="L12">
-        <v>0.9540090987485573</v>
+        <v>0.9540090987485578</v>
       </c>
       <c r="M12">
-        <v>0.8719993410159486</v>
+        <v>0.8719993410159493</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9299939539870173</v>
+        <v>0.9299939539870182</v>
       </c>
       <c r="D13">
-        <v>0.9640754456031252</v>
+        <v>0.9640754456031261</v>
       </c>
       <c r="E13">
-        <v>0.9381518764385417</v>
+        <v>0.9381518764385424</v>
       </c>
       <c r="F13">
-        <v>0.8544985881213969</v>
+        <v>0.8544985881213972</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020386975183487</v>
+        <v>1.020386975183488</v>
       </c>
       <c r="J13">
-        <v>0.9629831105996275</v>
+        <v>0.9629831105996284</v>
       </c>
       <c r="K13">
-        <v>0.9798783836110511</v>
+        <v>0.9798783836110521</v>
       </c>
       <c r="L13">
-        <v>0.9545199157751404</v>
+        <v>0.9545199157751409</v>
       </c>
       <c r="M13">
-        <v>0.8730122027967154</v>
+        <v>0.8730122027967158</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,19 +874,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9319882162786365</v>
+        <v>0.9319882162786378</v>
       </c>
       <c r="D14">
-        <v>0.9655953544687134</v>
+        <v>0.9655953544687143</v>
       </c>
       <c r="E14">
-        <v>0.9400101971860827</v>
+        <v>0.9400101971860838</v>
       </c>
       <c r="F14">
-        <v>0.8580648194576928</v>
+        <v>0.8580648194576942</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021077421667012</v>
       </c>
       <c r="J14">
-        <v>0.9645322955763157</v>
+        <v>0.9645322955763168</v>
       </c>
       <c r="K14">
-        <v>0.9812144922136681</v>
+        <v>0.981214492213669</v>
       </c>
       <c r="L14">
-        <v>0.956178216150022</v>
+        <v>0.9561782161500231</v>
       </c>
       <c r="M14">
-        <v>0.8762933621600695</v>
+        <v>0.876293362160071</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9332042751370303</v>
+        <v>0.9332042751370297</v>
       </c>
       <c r="D15">
-        <v>0.9665224004821527</v>
+        <v>0.9665224004821521</v>
       </c>
       <c r="E15">
-        <v>0.941142805824111</v>
+        <v>0.9411428058241105</v>
       </c>
       <c r="F15">
-        <v>0.8602315639182406</v>
+        <v>0.8602315639182401</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021497975309372</v>
       </c>
       <c r="J15">
-        <v>0.9654765245029091</v>
+        <v>0.9654765245029084</v>
       </c>
       <c r="K15">
-        <v>0.9820289119637263</v>
+        <v>0.9820289119637258</v>
       </c>
       <c r="L15">
-        <v>0.9571884478129017</v>
+        <v>0.9571884478129011</v>
       </c>
       <c r="M15">
-        <v>0.8782871185929538</v>
+        <v>0.8782871185929531</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9401009676689108</v>
+        <v>0.9401009676689099</v>
       </c>
       <c r="D16">
-        <v>0.9717832762610334</v>
+        <v>0.9717832762610328</v>
       </c>
       <c r="E16">
-        <v>0.947558771830958</v>
+        <v>0.9475587718309573</v>
       </c>
       <c r="F16">
-        <v>0.872413112788645</v>
+        <v>0.872413112788644</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023876049260499</v>
       </c>
       <c r="J16">
-        <v>0.9708254331637228</v>
+        <v>0.9708254331637219</v>
       </c>
       <c r="K16">
-        <v>0.9866431527040386</v>
+        <v>0.9866431527040377</v>
       </c>
       <c r="L16">
-        <v>0.9629044465420161</v>
+        <v>0.9629044465420152</v>
       </c>
       <c r="M16">
-        <v>0.8894987511852537</v>
+        <v>0.8894987511852528</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9442792802057862</v>
+        <v>0.9442792802057844</v>
       </c>
       <c r="D17">
-        <v>0.9749731071399238</v>
+        <v>0.974973107139922</v>
       </c>
       <c r="E17">
-        <v>0.9514401576681863</v>
+        <v>0.9514401576681848</v>
       </c>
       <c r="F17">
-        <v>0.8797104613562149</v>
+        <v>0.8797104613562137</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.025310593207257</v>
       </c>
       <c r="J17">
-        <v>0.9740609642157848</v>
+        <v>0.9740609642157833</v>
       </c>
       <c r="K17">
-        <v>0.9894346549083504</v>
+        <v>0.9894346549083489</v>
       </c>
       <c r="L17">
-        <v>0.9663567829311556</v>
+        <v>0.9663567829311542</v>
       </c>
       <c r="M17">
-        <v>0.8962168383049822</v>
+        <v>0.896216838304981</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,19 +1026,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9466673703998782</v>
+        <v>0.9466673703998787</v>
       </c>
       <c r="D18">
-        <v>0.9767970496063613</v>
+        <v>0.9767970496063615</v>
       </c>
       <c r="E18">
-        <v>0.9536567807134502</v>
+        <v>0.9536567807134506</v>
       </c>
       <c r="F18">
-        <v>0.8838551089240829</v>
+        <v>0.8838551089240838</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02612824857637</v>
       </c>
       <c r="J18">
-        <v>0.9759084906382891</v>
+        <v>0.9759084906382895</v>
       </c>
       <c r="K18">
-        <v>0.9910286877589436</v>
+        <v>0.991028687758944</v>
       </c>
       <c r="L18">
-        <v>0.9683264638597807</v>
+        <v>0.9683264638597811</v>
       </c>
       <c r="M18">
-        <v>0.9000329370789377</v>
+        <v>0.9000329370789387</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.947473687868055</v>
+        <v>0.947473687868056</v>
       </c>
       <c r="D19">
-        <v>0.9774130157830545</v>
+        <v>0.9774130157830555</v>
       </c>
       <c r="E19">
-        <v>0.9544049284299162</v>
+        <v>0.9544049284299169</v>
       </c>
       <c r="F19">
-        <v>0.8852503868061877</v>
+        <v>0.8852503868061891</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02640393870253</v>
       </c>
       <c r="J19">
-        <v>0.9765320073110556</v>
+        <v>0.9765320073110567</v>
       </c>
       <c r="K19">
-        <v>0.9915666555166648</v>
+        <v>0.9915666555166656</v>
       </c>
       <c r="L19">
-        <v>0.9689909475220705</v>
+        <v>0.9689909475220714</v>
       </c>
       <c r="M19">
-        <v>0.9013176718502336</v>
+        <v>0.9013176718502346</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9438361479716605</v>
+        <v>0.9438361479716604</v>
       </c>
       <c r="D20">
-        <v>0.9746347214893446</v>
+        <v>0.9746347214893444</v>
       </c>
       <c r="E20">
-        <v>0.9510287053648278</v>
+        <v>0.9510287053648276</v>
       </c>
       <c r="F20">
-        <v>0.8789393355724104</v>
+        <v>0.8789393355724112</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025158686183704</v>
+        <v>1.025158686183703</v>
       </c>
       <c r="J20">
         <v>0.9737180005085216</v>
       </c>
       <c r="K20">
-        <v>0.9891387507699589</v>
+        <v>0.9891387507699591</v>
       </c>
       <c r="L20">
         <v>0.9659910144635625</v>
       </c>
       <c r="M20">
-        <v>0.8955068732354832</v>
+        <v>0.8955068732354837</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.931403626821666</v>
+        <v>0.9314036268216667</v>
       </c>
       <c r="D21">
-        <v>0.9651497643971576</v>
+        <v>0.9651497643971578</v>
       </c>
       <c r="E21">
-        <v>0.9394655758244376</v>
+        <v>0.939465575824438</v>
       </c>
       <c r="F21">
-        <v>0.8570211068696735</v>
+        <v>0.857021106869674</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020875124632678</v>
       </c>
       <c r="J21">
-        <v>0.9640782653370621</v>
+        <v>0.9640782653370626</v>
       </c>
       <c r="K21">
-        <v>0.980822896347471</v>
+        <v>0.9808228963474716</v>
       </c>
       <c r="L21">
-        <v>0.9556923140370371</v>
+        <v>0.9556923140370372</v>
       </c>
       <c r="M21">
-        <v>0.8753330339273454</v>
+        <v>0.875333033927346</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.923044376224111</v>
+        <v>0.9230443762241111</v>
       </c>
       <c r="D22">
-        <v>0.9587828106296287</v>
+        <v>0.9587828106296291</v>
       </c>
       <c r="E22">
-        <v>0.9316665392895404</v>
+        <v>0.9316665392895405</v>
       </c>
       <c r="F22">
-        <v>0.8419385204303015</v>
+        <v>0.8419385204303017</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017973862051186</v>
+        <v>1.017973862051187</v>
       </c>
       <c r="J22">
         <v>0.9575775861928205</v>
       </c>
       <c r="K22">
-        <v>0.9752175277487625</v>
+        <v>0.9752175277487624</v>
       </c>
       <c r="L22">
         <v>0.9487251554757103</v>
       </c>
       <c r="M22">
-        <v>0.8614600766779271</v>
+        <v>0.8614600766779272</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9275330135359862</v>
+        <v>0.9275330135359861</v>
       </c>
       <c r="D23">
         <v>0.9622005438398736</v>
       </c>
       <c r="E23">
-        <v>0.935857067007446</v>
+        <v>0.9358570670074459</v>
       </c>
       <c r="F23">
-        <v>0.8500750285201956</v>
+        <v>0.8500750285201959</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.019533684985308</v>
       </c>
       <c r="J23">
-        <v>0.9610701822305907</v>
+        <v>0.9610701822305906</v>
       </c>
       <c r="K23">
-        <v>0.9782287537632114</v>
+        <v>0.9782287537632113</v>
       </c>
       <c r="L23">
-        <v>0.9524707915587788</v>
+        <v>0.9524707915587786</v>
       </c>
       <c r="M23">
-        <v>0.8689428988021995</v>
+        <v>0.8689428988021999</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9440365309281915</v>
+        <v>0.9440365309281927</v>
       </c>
       <c r="D24">
-        <v>0.9747877358729969</v>
+        <v>0.9747877358729978</v>
       </c>
       <c r="E24">
-        <v>0.9512147681788198</v>
+        <v>0.9512147681788209</v>
       </c>
       <c r="F24">
-        <v>0.8792881166498252</v>
+        <v>0.8792881166498269</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.02522738506372</v>
       </c>
       <c r="J24">
-        <v>0.9738730929274227</v>
+        <v>0.9738730929274241</v>
       </c>
       <c r="K24">
-        <v>0.9892725621280203</v>
+        <v>0.9892725621280209</v>
       </c>
       <c r="L24">
-        <v>0.9661564245439993</v>
+        <v>0.9661564245440005</v>
       </c>
       <c r="M24">
-        <v>0.8958279898824492</v>
+        <v>0.8958279898824507</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9612850186932926</v>
+        <v>0.9612850186932942</v>
       </c>
       <c r="D25">
-        <v>0.9879728244662114</v>
+        <v>0.9879728244662128</v>
       </c>
       <c r="E25">
-        <v>0.9672005317556538</v>
+        <v>0.9672005317556556</v>
       </c>
       <c r="F25">
-        <v>0.9088535622101043</v>
+        <v>0.9088535622101064</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031093251659064</v>
+        <v>1.031093251659065</v>
       </c>
       <c r="J25">
-        <v>0.9871894309147342</v>
+        <v>0.9871894309147358</v>
       </c>
       <c r="K25">
-        <v>1.000760760962919</v>
+        <v>1.00076076096292</v>
       </c>
       <c r="L25">
-        <v>0.9803302924619071</v>
+        <v>0.9803302924619087</v>
       </c>
       <c r="M25">
-        <v>0.9230533695889866</v>
+        <v>0.9230533695889883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
@@ -427,7 +427,7 @@
         <v>0.9976058620351572</v>
       </c>
       <c r="E2">
-        <v>0.9788323476556088</v>
+        <v>0.9788323476556087</v>
       </c>
       <c r="F2">
         <v>0.9299349905858351</v>
@@ -445,10 +445,10 @@
         <v>1.009098652081114</v>
       </c>
       <c r="L2">
-        <v>0.9905946766900364</v>
+        <v>0.9905946766900363</v>
       </c>
       <c r="M2">
-        <v>0.9424651765114175</v>
+        <v>0.9424651765114173</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9824528093051058</v>
+        <v>0.9824528093051077</v>
       </c>
       <c r="D3">
-        <v>1.004180612625524</v>
+        <v>1.004180612625526</v>
       </c>
       <c r="E3">
-        <v>0.9867551758858446</v>
+        <v>0.9867551758858467</v>
       </c>
       <c r="F3">
-        <v>0.9441225905687542</v>
+        <v>0.9441225905687558</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038133131992963</v>
+        <v>1.038133131992964</v>
       </c>
       <c r="J3">
-        <v>1.003433533555083</v>
+        <v>1.003433533555085</v>
       </c>
       <c r="K3">
-        <v>1.014760279747116</v>
+        <v>1.014760279747119</v>
       </c>
       <c r="L3">
-        <v>0.9975603795570097</v>
+        <v>0.9975603795570117</v>
       </c>
       <c r="M3">
-        <v>0.9555241443766</v>
+        <v>0.9555241443766019</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9877837069946548</v>
+        <v>0.9877837069946556</v>
       </c>
       <c r="D4">
         <v>1.008264430083828</v>
       </c>
       <c r="E4">
-        <v>0.9916716720828623</v>
+        <v>0.9916716720828631</v>
       </c>
       <c r="F4">
-        <v>0.9528659007513107</v>
+        <v>0.9528659007513121</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.039871155470058</v>
       </c>
       <c r="J4">
-        <v>1.007505154560558</v>
+        <v>1.007505154560559</v>
       </c>
       <c r="K4">
-        <v>1.018264123622523</v>
+        <v>1.018264123622524</v>
       </c>
       <c r="L4">
         <v>1.001871662950696</v>
       </c>
       <c r="M4">
-        <v>0.9635685725791948</v>
+        <v>0.9635685725791959</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9899754574244807</v>
+        <v>0.9899754574244808</v>
       </c>
       <c r="D5">
         <v>1.009943454848787</v>
@@ -544,13 +544,13 @@
         <v>0.9936922765255353</v>
       </c>
       <c r="F5">
-        <v>0.9564469449691303</v>
+        <v>0.9564469449691299</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040580963014317</v>
+        <v>1.040580963014318</v>
       </c>
       <c r="J5">
         <v>1.009176663365999</v>
@@ -562,7 +562,7 @@
         <v>1.003640902951932</v>
       </c>
       <c r="M5">
-        <v>0.9668624423510616</v>
+        <v>0.9668624423510611</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9903406774904469</v>
+        <v>0.9903406774904463</v>
       </c>
       <c r="D6">
-        <v>1.010223233197974</v>
+        <v>1.010223233197973</v>
       </c>
       <c r="E6">
-        <v>0.9940289368736325</v>
+        <v>0.9940289368736323</v>
       </c>
       <c r="F6">
-        <v>0.9570429301266525</v>
+        <v>0.9570429301266522</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.003935529609363</v>
       </c>
       <c r="M6">
-        <v>0.9674105756904243</v>
+        <v>0.9674105756904242</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9878131821664201</v>
+        <v>0.98781318216642</v>
       </c>
       <c r="D7">
-        <v>1.008287010193737</v>
+        <v>1.008287010193736</v>
       </c>
       <c r="E7">
-        <v>0.9916988484951265</v>
+        <v>0.991698848495126</v>
       </c>
       <c r="F7">
-        <v>0.95291411066687</v>
+        <v>0.9529141106668687</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1.039880720115177</v>
       </c>
       <c r="J7">
-        <v>1.007527643287097</v>
+        <v>1.007527643287096</v>
       </c>
       <c r="K7">
         <v>1.018283468502748</v>
@@ -638,7 +638,7 @@
         <v>1.001895468950784</v>
       </c>
       <c r="M7">
-        <v>0.9636129202453545</v>
+        <v>0.9636129202453535</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9768188533986039</v>
+        <v>0.9768188533986051</v>
       </c>
       <c r="D8">
-        <v>0.9998650705053679</v>
+        <v>0.9998650705053691</v>
       </c>
       <c r="E8">
-        <v>0.9815560056609122</v>
+        <v>0.9815560056609134</v>
       </c>
       <c r="F8">
-        <v>0.9348267695664496</v>
+        <v>0.9348267695664524</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036279727411744</v>
+        <v>1.036279727411745</v>
       </c>
       <c r="J8">
-        <v>0.9991215484271811</v>
+        <v>0.9991215484271821</v>
       </c>
       <c r="K8">
-        <v>1.011046869806675</v>
+        <v>1.011046869806677</v>
       </c>
       <c r="L8">
-        <v>0.99299174766996</v>
+        <v>0.9929917476699612</v>
       </c>
       <c r="M8">
-        <v>0.9469684403552564</v>
+        <v>0.9469684403552591</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -693,10 +693,10 @@
         <v>0.9835576597370155</v>
       </c>
       <c r="E9">
-        <v>0.9618570927217033</v>
+        <v>0.9618570927217031</v>
       </c>
       <c r="F9">
-        <v>0.899054197337574</v>
+        <v>0.8990541973375731</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.029141393697829</v>
       </c>
       <c r="J9">
-        <v>0.9827406952662946</v>
+        <v>0.9827406952662943</v>
       </c>
       <c r="K9">
-        <v>0.9969232571170941</v>
+        <v>0.9969232571170942</v>
       </c>
       <c r="L9">
-        <v>0.9756008898036637</v>
+        <v>0.9756008898036632</v>
       </c>
       <c r="M9">
-        <v>0.9140290125909385</v>
+        <v>0.9140290125909374</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9396218508293952</v>
+        <v>0.9396218508293961</v>
       </c>
       <c r="D10">
-        <v>0.9714176262261806</v>
+        <v>0.9714176262261814</v>
       </c>
       <c r="E10">
-        <v>0.9471134404660544</v>
+        <v>0.9471134404660555</v>
       </c>
       <c r="F10">
-        <v>0.8715724885586176</v>
+        <v>0.8715724885586191</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023711244988966</v>
+        <v>1.023711244988967</v>
       </c>
       <c r="J10">
-        <v>0.970454178352305</v>
+        <v>0.970454178352306</v>
       </c>
       <c r="K10">
-        <v>0.9863228600043148</v>
+        <v>0.9863228600043158</v>
       </c>
       <c r="L10">
-        <v>0.9625080709612964</v>
+        <v>0.9625080709612976</v>
       </c>
       <c r="M10">
-        <v>0.8887249310147641</v>
+        <v>0.8887249310147658</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9322210786540304</v>
+        <v>0.932221078654032</v>
       </c>
       <c r="D11">
-        <v>0.9657728601175564</v>
+        <v>0.9657728601175576</v>
       </c>
       <c r="E11">
-        <v>0.9402271118470409</v>
+        <v>0.9402271118470426</v>
       </c>
       <c r="F11">
-        <v>0.8584801838802955</v>
+        <v>0.8584801838802971</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021157980864777</v>
       </c>
       <c r="J11">
-        <v>0.9647131306436474</v>
+        <v>0.9647131306436491</v>
       </c>
       <c r="K11">
-        <v>0.9813704633276314</v>
+        <v>0.9813704633276328</v>
       </c>
       <c r="L11">
-        <v>0.9563717209454246</v>
+        <v>0.9563717209454261</v>
       </c>
       <c r="M11">
-        <v>0.8766755526399477</v>
+        <v>0.8766755526399496</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.929380130593033</v>
+        <v>0.9293801305930326</v>
       </c>
       <c r="D12">
-        <v>0.9636077245729592</v>
+        <v>0.963607724572959</v>
       </c>
       <c r="E12">
-        <v>0.9375796612193397</v>
+        <v>0.9375796612193391</v>
       </c>
       <c r="F12">
-        <v>0.8533976266473797</v>
+        <v>0.8533976266473791</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020174271956752</v>
       </c>
       <c r="J12">
-        <v>0.9625061021784822</v>
+        <v>0.9625061021784815</v>
       </c>
       <c r="K12">
-        <v>0.9794670104796542</v>
+        <v>0.9794670104796539</v>
       </c>
       <c r="L12">
-        <v>0.9540090987485578</v>
+        <v>0.9540090987485573</v>
       </c>
       <c r="M12">
-        <v>0.8719993410159493</v>
+        <v>0.8719993410159486</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9299939539870182</v>
+        <v>0.9299939539870173</v>
       </c>
       <c r="D13">
-        <v>0.9640754456031261</v>
+        <v>0.9640754456031252</v>
       </c>
       <c r="E13">
-        <v>0.9381518764385424</v>
+        <v>0.9381518764385417</v>
       </c>
       <c r="F13">
-        <v>0.8544985881213972</v>
+        <v>0.8544985881213969</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020386975183488</v>
+        <v>1.020386975183487</v>
       </c>
       <c r="J13">
-        <v>0.9629831105996284</v>
+        <v>0.9629831105996275</v>
       </c>
       <c r="K13">
-        <v>0.9798783836110521</v>
+        <v>0.9798783836110511</v>
       </c>
       <c r="L13">
-        <v>0.9545199157751409</v>
+        <v>0.9545199157751404</v>
       </c>
       <c r="M13">
-        <v>0.8730122027967158</v>
+        <v>0.8730122027967154</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,19 +874,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9319882162786378</v>
+        <v>0.9319882162786365</v>
       </c>
       <c r="D14">
-        <v>0.9655953544687143</v>
+        <v>0.9655953544687134</v>
       </c>
       <c r="E14">
-        <v>0.9400101971860838</v>
+        <v>0.9400101971860827</v>
       </c>
       <c r="F14">
-        <v>0.8580648194576942</v>
+        <v>0.8580648194576928</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.021077421667012</v>
       </c>
       <c r="J14">
-        <v>0.9645322955763168</v>
+        <v>0.9645322955763157</v>
       </c>
       <c r="K14">
-        <v>0.981214492213669</v>
+        <v>0.9812144922136681</v>
       </c>
       <c r="L14">
-        <v>0.9561782161500231</v>
+        <v>0.956178216150022</v>
       </c>
       <c r="M14">
-        <v>0.876293362160071</v>
+        <v>0.8762933621600695</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9332042751370297</v>
+        <v>0.9332042751370303</v>
       </c>
       <c r="D15">
-        <v>0.9665224004821521</v>
+        <v>0.9665224004821527</v>
       </c>
       <c r="E15">
-        <v>0.9411428058241105</v>
+        <v>0.941142805824111</v>
       </c>
       <c r="F15">
-        <v>0.8602315639182401</v>
+        <v>0.8602315639182406</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021497975309372</v>
       </c>
       <c r="J15">
-        <v>0.9654765245029084</v>
+        <v>0.9654765245029091</v>
       </c>
       <c r="K15">
-        <v>0.9820289119637258</v>
+        <v>0.9820289119637263</v>
       </c>
       <c r="L15">
-        <v>0.9571884478129011</v>
+        <v>0.9571884478129017</v>
       </c>
       <c r="M15">
-        <v>0.8782871185929531</v>
+        <v>0.8782871185929538</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9401009676689099</v>
+        <v>0.9401009676689108</v>
       </c>
       <c r="D16">
-        <v>0.9717832762610328</v>
+        <v>0.9717832762610334</v>
       </c>
       <c r="E16">
-        <v>0.9475587718309573</v>
+        <v>0.947558771830958</v>
       </c>
       <c r="F16">
-        <v>0.872413112788644</v>
+        <v>0.872413112788645</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023876049260499</v>
       </c>
       <c r="J16">
-        <v>0.9708254331637219</v>
+        <v>0.9708254331637228</v>
       </c>
       <c r="K16">
-        <v>0.9866431527040377</v>
+        <v>0.9866431527040386</v>
       </c>
       <c r="L16">
-        <v>0.9629044465420152</v>
+        <v>0.9629044465420161</v>
       </c>
       <c r="M16">
-        <v>0.8894987511852528</v>
+        <v>0.8894987511852537</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9442792802057844</v>
+        <v>0.9442792802057862</v>
       </c>
       <c r="D17">
-        <v>0.974973107139922</v>
+        <v>0.9749731071399238</v>
       </c>
       <c r="E17">
-        <v>0.9514401576681848</v>
+        <v>0.9514401576681863</v>
       </c>
       <c r="F17">
-        <v>0.8797104613562137</v>
+        <v>0.8797104613562149</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.025310593207257</v>
       </c>
       <c r="J17">
-        <v>0.9740609642157833</v>
+        <v>0.9740609642157848</v>
       </c>
       <c r="K17">
-        <v>0.9894346549083489</v>
+        <v>0.9894346549083504</v>
       </c>
       <c r="L17">
-        <v>0.9663567829311542</v>
+        <v>0.9663567829311556</v>
       </c>
       <c r="M17">
-        <v>0.896216838304981</v>
+        <v>0.8962168383049822</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,19 +1026,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9466673703998787</v>
+        <v>0.9466673703998782</v>
       </c>
       <c r="D18">
-        <v>0.9767970496063615</v>
+        <v>0.9767970496063613</v>
       </c>
       <c r="E18">
-        <v>0.9536567807134506</v>
+        <v>0.9536567807134502</v>
       </c>
       <c r="F18">
-        <v>0.8838551089240838</v>
+        <v>0.8838551089240829</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02612824857637</v>
       </c>
       <c r="J18">
-        <v>0.9759084906382895</v>
+        <v>0.9759084906382891</v>
       </c>
       <c r="K18">
-        <v>0.991028687758944</v>
+        <v>0.9910286877589436</v>
       </c>
       <c r="L18">
-        <v>0.9683264638597811</v>
+        <v>0.9683264638597807</v>
       </c>
       <c r="M18">
-        <v>0.9000329370789387</v>
+        <v>0.9000329370789377</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.947473687868056</v>
+        <v>0.947473687868055</v>
       </c>
       <c r="D19">
-        <v>0.9774130157830555</v>
+        <v>0.9774130157830545</v>
       </c>
       <c r="E19">
-        <v>0.9544049284299169</v>
+        <v>0.9544049284299162</v>
       </c>
       <c r="F19">
-        <v>0.8852503868061891</v>
+        <v>0.8852503868061877</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02640393870253</v>
       </c>
       <c r="J19">
-        <v>0.9765320073110567</v>
+        <v>0.9765320073110556</v>
       </c>
       <c r="K19">
-        <v>0.9915666555166656</v>
+        <v>0.9915666555166648</v>
       </c>
       <c r="L19">
-        <v>0.9689909475220714</v>
+        <v>0.9689909475220705</v>
       </c>
       <c r="M19">
-        <v>0.9013176718502346</v>
+        <v>0.9013176718502336</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9438361479716604</v>
+        <v>0.9438361479716605</v>
       </c>
       <c r="D20">
-        <v>0.9746347214893444</v>
+        <v>0.9746347214893446</v>
       </c>
       <c r="E20">
-        <v>0.9510287053648276</v>
+        <v>0.9510287053648278</v>
       </c>
       <c r="F20">
-        <v>0.8789393355724112</v>
+        <v>0.8789393355724104</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025158686183703</v>
+        <v>1.025158686183704</v>
       </c>
       <c r="J20">
         <v>0.9737180005085216</v>
       </c>
       <c r="K20">
-        <v>0.9891387507699591</v>
+        <v>0.9891387507699589</v>
       </c>
       <c r="L20">
         <v>0.9659910144635625</v>
       </c>
       <c r="M20">
-        <v>0.8955068732354837</v>
+        <v>0.8955068732354832</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9314036268216667</v>
+        <v>0.931403626821666</v>
       </c>
       <c r="D21">
-        <v>0.9651497643971578</v>
+        <v>0.9651497643971576</v>
       </c>
       <c r="E21">
-        <v>0.939465575824438</v>
+        <v>0.9394655758244376</v>
       </c>
       <c r="F21">
-        <v>0.857021106869674</v>
+        <v>0.8570211068696735</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020875124632678</v>
       </c>
       <c r="J21">
-        <v>0.9640782653370626</v>
+        <v>0.9640782653370621</v>
       </c>
       <c r="K21">
-        <v>0.9808228963474716</v>
+        <v>0.980822896347471</v>
       </c>
       <c r="L21">
-        <v>0.9556923140370372</v>
+        <v>0.9556923140370371</v>
       </c>
       <c r="M21">
-        <v>0.875333033927346</v>
+        <v>0.8753330339273454</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9230443762241111</v>
+        <v>0.923044376224111</v>
       </c>
       <c r="D22">
-        <v>0.9587828106296291</v>
+        <v>0.9587828106296287</v>
       </c>
       <c r="E22">
-        <v>0.9316665392895405</v>
+        <v>0.9316665392895404</v>
       </c>
       <c r="F22">
-        <v>0.8419385204303017</v>
+        <v>0.8419385204303015</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017973862051187</v>
+        <v>1.017973862051186</v>
       </c>
       <c r="J22">
         <v>0.9575775861928205</v>
       </c>
       <c r="K22">
-        <v>0.9752175277487624</v>
+        <v>0.9752175277487625</v>
       </c>
       <c r="L22">
         <v>0.9487251554757103</v>
       </c>
       <c r="M22">
-        <v>0.8614600766779272</v>
+        <v>0.8614600766779271</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9275330135359861</v>
+        <v>0.9275330135359862</v>
       </c>
       <c r="D23">
         <v>0.9622005438398736</v>
       </c>
       <c r="E23">
-        <v>0.9358570670074459</v>
+        <v>0.935857067007446</v>
       </c>
       <c r="F23">
-        <v>0.8500750285201959</v>
+        <v>0.8500750285201956</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.019533684985308</v>
       </c>
       <c r="J23">
-        <v>0.9610701822305906</v>
+        <v>0.9610701822305907</v>
       </c>
       <c r="K23">
-        <v>0.9782287537632113</v>
+        <v>0.9782287537632114</v>
       </c>
       <c r="L23">
-        <v>0.9524707915587786</v>
+        <v>0.9524707915587788</v>
       </c>
       <c r="M23">
-        <v>0.8689428988021999</v>
+        <v>0.8689428988021995</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9440365309281927</v>
+        <v>0.9440365309281915</v>
       </c>
       <c r="D24">
-        <v>0.9747877358729978</v>
+        <v>0.9747877358729969</v>
       </c>
       <c r="E24">
-        <v>0.9512147681788209</v>
+        <v>0.9512147681788198</v>
       </c>
       <c r="F24">
-        <v>0.8792881166498269</v>
+        <v>0.8792881166498252</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.02522738506372</v>
       </c>
       <c r="J24">
-        <v>0.9738730929274241</v>
+        <v>0.9738730929274227</v>
       </c>
       <c r="K24">
-        <v>0.9892725621280209</v>
+        <v>0.9892725621280203</v>
       </c>
       <c r="L24">
-        <v>0.9661564245440005</v>
+        <v>0.9661564245439993</v>
       </c>
       <c r="M24">
-        <v>0.8958279898824507</v>
+        <v>0.8958279898824492</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9612850186932942</v>
+        <v>0.9612850186932926</v>
       </c>
       <c r="D25">
-        <v>0.9879728244662128</v>
+        <v>0.9879728244662114</v>
       </c>
       <c r="E25">
-        <v>0.9672005317556556</v>
+        <v>0.9672005317556538</v>
       </c>
       <c r="F25">
-        <v>0.9088535622101064</v>
+        <v>0.9088535622101043</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031093251659065</v>
+        <v>1.031093251659064</v>
       </c>
       <c r="J25">
-        <v>0.9871894309147358</v>
+        <v>0.9871894309147342</v>
       </c>
       <c r="K25">
-        <v>1.00076076096292</v>
+        <v>1.000760760962919</v>
       </c>
       <c r="L25">
-        <v>0.9803302924619087</v>
+        <v>0.9803302924619071</v>
       </c>
       <c r="M25">
-        <v>0.9230533695889883</v>
+        <v>0.9230533695889866</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9738689835674033</v>
+        <v>0.9738908322039223</v>
       </c>
       <c r="D2">
-        <v>0.9976058620351572</v>
+        <v>0.9976232467285737</v>
       </c>
       <c r="E2">
-        <v>0.9788323476556087</v>
+        <v>0.9788530100283902</v>
       </c>
       <c r="F2">
-        <v>0.9299349905858351</v>
+        <v>0.929958186201021</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035303024562481</v>
+        <v>1.035311842705729</v>
       </c>
       <c r="J2">
-        <v>0.9968603841876199</v>
+        <v>0.9968815297825053</v>
       </c>
       <c r="K2">
-        <v>1.009098652081114</v>
+        <v>1.009115793113315</v>
       </c>
       <c r="L2">
-        <v>0.9905946766900363</v>
+        <v>0.9906150351890303</v>
       </c>
       <c r="M2">
-        <v>0.9424651765114173</v>
+        <v>0.9424879832031389</v>
+      </c>
+      <c r="N2">
+        <v>0.9994497037632297</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9824528093051077</v>
+        <v>0.9824689964840208</v>
       </c>
       <c r="D3">
-        <v>1.004180612625526</v>
+        <v>1.004193514656374</v>
       </c>
       <c r="E3">
-        <v>0.9867551758858467</v>
+        <v>0.9867706696977431</v>
       </c>
       <c r="F3">
-        <v>0.9441225905687558</v>
+        <v>0.9441397392688233</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038133131992964</v>
+        <v>1.038139684594471</v>
       </c>
       <c r="J3">
-        <v>1.003433533555085</v>
+        <v>1.00344925761016</v>
       </c>
       <c r="K3">
-        <v>1.014760279747119</v>
+        <v>1.014773018408184</v>
       </c>
       <c r="L3">
-        <v>0.9975603795570117</v>
+        <v>0.9975756683955159</v>
       </c>
       <c r="M3">
-        <v>0.9555241443766019</v>
+        <v>0.9555410394457711</v>
+      </c>
+      <c r="N3">
+        <v>1.004003586811665</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9877837069946556</v>
+        <v>0.9877964715624536</v>
       </c>
       <c r="D4">
-        <v>1.008264430083828</v>
+        <v>1.008274614582244</v>
       </c>
       <c r="E4">
-        <v>0.9916716720828631</v>
+        <v>0.9916840453529275</v>
       </c>
       <c r="F4">
-        <v>0.9528659007513121</v>
+        <v>0.9528794834818699</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039871155470058</v>
+        <v>1.03987633207168</v>
       </c>
       <c r="J4">
-        <v>1.007505154560559</v>
+        <v>1.007517581557972</v>
       </c>
       <c r="K4">
-        <v>1.018264123622524</v>
+        <v>1.01827418768818</v>
       </c>
       <c r="L4">
-        <v>1.001871662950696</v>
+        <v>1.001883883751456</v>
       </c>
       <c r="M4">
-        <v>0.9635685725791959</v>
+        <v>0.9635819703503135</v>
+      </c>
+      <c r="N4">
+        <v>1.006822597676688</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9899754574244808</v>
+        <v>0.989986834019008</v>
       </c>
       <c r="D5">
-        <v>1.009943454848787</v>
+        <v>1.009952535690902</v>
       </c>
       <c r="E5">
-        <v>0.9936922765255353</v>
+        <v>0.9937033852266145</v>
       </c>
       <c r="F5">
-        <v>0.9564469449691299</v>
+        <v>0.9564590998407886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040580963014318</v>
+        <v>1.040585580201691</v>
       </c>
       <c r="J5">
-        <v>1.009176663365999</v>
+        <v>1.009187749091743</v>
       </c>
       <c r="K5">
-        <v>1.019701706193576</v>
+        <v>1.019710682772658</v>
       </c>
       <c r="L5">
-        <v>1.003640902951932</v>
+        <v>1.003651878882796</v>
       </c>
       <c r="M5">
-        <v>0.9668624423510611</v>
+        <v>0.9668744374290347</v>
+      </c>
+      <c r="N5">
+        <v>1.007979410210178</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9903406774904463</v>
+        <v>0.9903518238482258</v>
       </c>
       <c r="D6">
-        <v>1.010223233197973</v>
+        <v>1.010232130876026</v>
       </c>
       <c r="E6">
-        <v>0.9940289368736323</v>
+        <v>0.9940398358600118</v>
       </c>
       <c r="F6">
-        <v>0.9570429301266522</v>
+        <v>0.9570548491376709</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04069895875787</v>
+        <v>1.040703483070348</v>
       </c>
       <c r="J6">
-        <v>1.009455047076642</v>
+        <v>1.009465910076821</v>
       </c>
       <c r="K6">
-        <v>1.019941078732909</v>
+        <v>1.019949874759797</v>
       </c>
       <c r="L6">
-        <v>1.003935529609363</v>
+        <v>1.003946299003607</v>
       </c>
       <c r="M6">
-        <v>0.9674105756904242</v>
+        <v>0.967422338936042</v>
+      </c>
+      <c r="N6">
+        <v>1.008172044809941</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.98781318216642</v>
+        <v>0.987825927996112</v>
       </c>
       <c r="D7">
-        <v>1.008287010193736</v>
+        <v>1.008297179798608</v>
       </c>
       <c r="E7">
-        <v>0.991698848495126</v>
+        <v>0.9917112046895493</v>
       </c>
       <c r="F7">
-        <v>0.9529141106668687</v>
+        <v>0.9529276740519543</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039880720115177</v>
+        <v>1.03988588916996</v>
       </c>
       <c r="J7">
-        <v>1.007527643287096</v>
+        <v>1.007540052193111</v>
       </c>
       <c r="K7">
-        <v>1.018283468502748</v>
+        <v>1.01829351789798</v>
       </c>
       <c r="L7">
-        <v>1.001895468950784</v>
+        <v>1.001907672948002</v>
       </c>
       <c r="M7">
-        <v>0.9636129202453535</v>
+        <v>0.963626299020888</v>
+      </c>
+      <c r="N7">
+        <v>1.00683816349466</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9768188533986051</v>
+        <v>0.976838734414437</v>
       </c>
       <c r="D8">
-        <v>0.9998650705053691</v>
+        <v>0.9998808990362432</v>
       </c>
       <c r="E8">
-        <v>0.9815560056609134</v>
+        <v>0.9815748707717873</v>
       </c>
       <c r="F8">
-        <v>0.9348267695664524</v>
+        <v>0.9348478418689664</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036279727411745</v>
+        <v>1.03628775963923</v>
       </c>
       <c r="J8">
-        <v>0.9991215484271821</v>
+        <v>0.9991408143126893</v>
       </c>
       <c r="K8">
-        <v>1.011046869806677</v>
+        <v>1.011062483861519</v>
       </c>
       <c r="L8">
-        <v>0.9929917476699612</v>
+        <v>0.993010344960921</v>
       </c>
       <c r="M8">
-        <v>0.9469684403552591</v>
+        <v>0.9469891739243776</v>
+      </c>
+      <c r="N8">
+        <v>1.001016605007417</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9555128870278263</v>
+        <v>0.9555475711401152</v>
       </c>
       <c r="D9">
-        <v>0.9835576597370155</v>
+        <v>0.9835851494007859</v>
       </c>
       <c r="E9">
-        <v>0.9618570927217031</v>
+        <v>0.9618895048326077</v>
       </c>
       <c r="F9">
-        <v>0.8990541973375731</v>
+        <v>0.8990918681792909</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029141393697829</v>
+        <v>1.02915530188017</v>
       </c>
       <c r="J9">
-        <v>0.9827406952662943</v>
+        <v>0.9827739871452694</v>
       </c>
       <c r="K9">
-        <v>0.9969232571170942</v>
+        <v>0.9969502813467332</v>
       </c>
       <c r="L9">
-        <v>0.9756008898036632</v>
+        <v>0.9756327205021864</v>
       </c>
       <c r="M9">
-        <v>0.9140290125909374</v>
+        <v>0.9140658766738934</v>
+      </c>
+      <c r="N9">
+        <v>0.9896588432650167</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9396218508293961</v>
+        <v>0.9396686408081324</v>
       </c>
       <c r="D10">
-        <v>0.9714176262261814</v>
+        <v>0.971454573380883</v>
       </c>
       <c r="E10">
-        <v>0.9471134404660555</v>
+        <v>0.9471569813680525</v>
       </c>
       <c r="F10">
-        <v>0.8715724885586191</v>
+        <v>0.8716249473965617</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023711244988967</v>
+        <v>1.023729898895353</v>
       </c>
       <c r="J10">
-        <v>0.970454178352306</v>
+        <v>0.9704987507111115</v>
       </c>
       <c r="K10">
-        <v>0.9863228600043158</v>
+        <v>0.9863590876225178</v>
       </c>
       <c r="L10">
-        <v>0.9625080709612976</v>
+        <v>0.9625507054307779</v>
       </c>
       <c r="M10">
-        <v>0.8887249310147658</v>
+        <v>0.8887760257486704</v>
+      </c>
+      <c r="N10">
+        <v>0.9811338351925029</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.932221078654032</v>
+        <v>0.9322738978949303</v>
       </c>
       <c r="D11">
-        <v>0.9657728601175576</v>
+        <v>0.9658144917782031</v>
       </c>
       <c r="E11">
-        <v>0.9402271118470426</v>
+        <v>0.9402762167302329</v>
       </c>
       <c r="F11">
-        <v>0.8584801838802971</v>
+        <v>0.858540485727904</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021157980864777</v>
+        <v>1.021178979896338</v>
       </c>
       <c r="J11">
-        <v>0.9647131306436491</v>
+        <v>0.9647632621117735</v>
       </c>
       <c r="K11">
-        <v>0.9813704633276328</v>
+        <v>0.9814112347125896</v>
       </c>
       <c r="L11">
-        <v>0.9563717209454261</v>
+        <v>0.9564197363991919</v>
       </c>
       <c r="M11">
-        <v>0.8766755526399496</v>
+        <v>0.8767341445146267</v>
+      </c>
+      <c r="N11">
+        <v>0.9771499143995485</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9293801305930326</v>
+        <v>0.9294353407814077</v>
       </c>
       <c r="D12">
-        <v>0.963607724572959</v>
+        <v>0.963651209309654</v>
       </c>
       <c r="E12">
-        <v>0.9375796612193391</v>
+        <v>0.9376309771899503</v>
       </c>
       <c r="F12">
-        <v>0.8533976266473791</v>
+        <v>0.8534611357076459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020174271956752</v>
+        <v>1.020196197753022</v>
       </c>
       <c r="J12">
-        <v>0.9625061021784815</v>
+        <v>0.962558427909561</v>
       </c>
       <c r="K12">
-        <v>0.9794670104796539</v>
+        <v>0.9795095767726416</v>
       </c>
       <c r="L12">
-        <v>0.9540090987485573</v>
+        <v>0.9540592490587557</v>
       </c>
       <c r="M12">
-        <v>0.8719993410159486</v>
+        <v>0.8720609891221208</v>
+      </c>
+      <c r="N12">
+        <v>0.9756184130187828</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9299939539870173</v>
+        <v>0.9300486437747424</v>
       </c>
       <c r="D13">
-        <v>0.9640754456031252</v>
+        <v>0.9641185272284525</v>
       </c>
       <c r="E13">
-        <v>0.9381518764385417</v>
+        <v>0.9382027109156855</v>
       </c>
       <c r="F13">
-        <v>0.8544985881213969</v>
+        <v>0.8545613942488034</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020386975183487</v>
+        <v>1.020408699416837</v>
       </c>
       <c r="J13">
-        <v>0.9629831105996275</v>
+        <v>0.9630349592218491</v>
       </c>
       <c r="K13">
-        <v>0.9798783836110511</v>
+        <v>0.9799205595624507</v>
       </c>
       <c r="L13">
-        <v>0.9545199157751404</v>
+        <v>0.9545696013566812</v>
       </c>
       <c r="M13">
-        <v>0.8730122027967154</v>
+        <v>0.8730731815250335</v>
+      </c>
+      <c r="N13">
+        <v>0.9759494150558453</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9319882162786365</v>
+        <v>0.9320412298268387</v>
       </c>
       <c r="D14">
-        <v>0.9655953544687134</v>
+        <v>0.9656371368213675</v>
       </c>
       <c r="E14">
-        <v>0.9400101971860827</v>
+        <v>0.9400594816558921</v>
       </c>
       <c r="F14">
-        <v>0.8580648194576928</v>
+        <v>0.8581253798309554</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021077421667012</v>
+        <v>1.021098496081643</v>
       </c>
       <c r="J14">
-        <v>0.9645322955763157</v>
+        <v>0.9645826055803765</v>
       </c>
       <c r="K14">
-        <v>0.9812144922136681</v>
+        <v>0.9812554096117786</v>
       </c>
       <c r="L14">
-        <v>0.956178216150022</v>
+        <v>0.9562264050714363</v>
       </c>
       <c r="M14">
-        <v>0.8762933621600695</v>
+        <v>0.8763522005921004</v>
+      </c>
+      <c r="N14">
+        <v>0.9770244278618871</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9332042751370303</v>
+        <v>0.9332562771815677</v>
       </c>
       <c r="D15">
-        <v>0.9665224004821527</v>
+        <v>0.9665633981910359</v>
       </c>
       <c r="E15">
-        <v>0.941142805824111</v>
+        <v>0.9411911556172778</v>
       </c>
       <c r="F15">
-        <v>0.8602315639182406</v>
+        <v>0.8602907825265088</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021497975309372</v>
+        <v>1.021518657172369</v>
       </c>
       <c r="J15">
-        <v>0.9654765245029091</v>
+        <v>0.9655259046876647</v>
       </c>
       <c r="K15">
-        <v>0.9820289119637263</v>
+        <v>0.9820690689795011</v>
       </c>
       <c r="L15">
-        <v>0.9571884478129017</v>
+        <v>0.9572357337621573</v>
       </c>
       <c r="M15">
-        <v>0.8782871185929538</v>
+        <v>0.8783446769877937</v>
+      </c>
+      <c r="N15">
+        <v>0.9776796570215983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9401009676689108</v>
+        <v>0.9401473766354247</v>
       </c>
       <c r="D16">
-        <v>0.9717832762610334</v>
+        <v>0.9718199268175487</v>
       </c>
       <c r="E16">
-        <v>0.947558771830958</v>
+        <v>0.9476019616471226</v>
       </c>
       <c r="F16">
-        <v>0.872413112788645</v>
+        <v>0.8724650872805502</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023876049260499</v>
+        <v>1.023894554569841</v>
       </c>
       <c r="J16">
-        <v>0.9708254331637228</v>
+        <v>0.9708696529439845</v>
       </c>
       <c r="K16">
-        <v>0.9866431527040386</v>
+        <v>0.9866790923187512</v>
       </c>
       <c r="L16">
-        <v>0.9629044465420161</v>
+        <v>0.9629467410337237</v>
       </c>
       <c r="M16">
-        <v>0.8894987511852537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.88954938182038</v>
+      </c>
+      <c r="N16">
+        <v>0.9813914607331921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,75 +1036,81 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9442792802057862</v>
+        <v>0.9443224112251198</v>
       </c>
       <c r="D17">
-        <v>0.9749731071399238</v>
+        <v>0.9750072031645748</v>
       </c>
       <c r="E17">
-        <v>0.9514401576681863</v>
+        <v>0.9514803293700169</v>
       </c>
       <c r="F17">
-        <v>0.8797104613562149</v>
+        <v>0.8797583217736107</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025310593207257</v>
+        <v>1.025327818082976</v>
       </c>
       <c r="J17">
-        <v>0.9740609642157848</v>
+        <v>0.9741021442212454</v>
       </c>
       <c r="K17">
-        <v>0.9894346549083504</v>
+        <v>0.9894681123928138</v>
       </c>
       <c r="L17">
-        <v>0.9663567829311556</v>
+        <v>0.9663961525698578</v>
       </c>
       <c r="M17">
-        <v>0.8962168383049822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8962635215054573</v>
+      </c>
+      <c r="N17">
+        <v>0.9836366541604877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9466673703998782</v>
+        <v>0.9467086626568869</v>
       </c>
       <c r="D18">
-        <v>0.9767970496063613</v>
+        <v>0.9768297104401341</v>
       </c>
       <c r="E18">
-        <v>0.9536567807134502</v>
+        <v>0.9536952611814631</v>
       </c>
       <c r="F18">
-        <v>0.8838551089240829</v>
+        <v>0.8839007019470578</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02612824857637</v>
+        <v>1.026144753590571</v>
       </c>
       <c r="J18">
-        <v>0.9759084906382891</v>
+        <v>0.9759479603487223</v>
       </c>
       <c r="K18">
-        <v>0.9910286877589436</v>
+        <v>0.9910607494255125</v>
       </c>
       <c r="L18">
-        <v>0.9683264638597807</v>
+        <v>0.9683641927439421</v>
       </c>
       <c r="M18">
-        <v>0.9000329370789377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9000774405874743</v>
+      </c>
+      <c r="N18">
+        <v>0.9849186328053144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.947473687868055</v>
+        <v>0.947514364761829</v>
       </c>
       <c r="D19">
-        <v>0.9774130157830545</v>
+        <v>0.9774451959535123</v>
       </c>
       <c r="E19">
-        <v>0.9544049284299162</v>
+        <v>0.9544428431787375</v>
       </c>
       <c r="F19">
-        <v>0.8852503868061877</v>
+        <v>0.8852952273241158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02640393870253</v>
+        <v>1.026420202545596</v>
       </c>
       <c r="J19">
-        <v>0.9765320073110556</v>
+        <v>0.976570903814704</v>
       </c>
       <c r="K19">
-        <v>0.9915666555166648</v>
+        <v>0.9915982494920457</v>
       </c>
       <c r="L19">
-        <v>0.9689909475220705</v>
+        <v>0.9690281272812062</v>
       </c>
       <c r="M19">
-        <v>0.9013176718502336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9013614513022301</v>
+      </c>
+      <c r="N19">
+        <v>0.9853512725319419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9438361479716605</v>
+        <v>0.9438796229120013</v>
       </c>
       <c r="D20">
-        <v>0.9746347214893446</v>
+        <v>0.9746690857728578</v>
       </c>
       <c r="E20">
-        <v>0.9510287053648278</v>
+        <v>0.9510691935322696</v>
       </c>
       <c r="F20">
-        <v>0.8789393355724104</v>
+        <v>0.8789876232588798</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025158686183704</v>
+        <v>1.025176045573019</v>
       </c>
       <c r="J20">
-        <v>0.9737180005085216</v>
+        <v>0.9737594999936291</v>
       </c>
       <c r="K20">
-        <v>0.9891387507699589</v>
+        <v>0.9891724690486341</v>
       </c>
       <c r="L20">
-        <v>0.9659910144635625</v>
+        <v>0.9660306909786113</v>
       </c>
       <c r="M20">
-        <v>0.8955068732354832</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.895553966846853</v>
+      </c>
+      <c r="N20">
+        <v>0.9833986703396673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.931403626821666</v>
+        <v>0.9314571294666113</v>
       </c>
       <c r="D21">
-        <v>0.9651497643971576</v>
+        <v>0.965191925985449</v>
       </c>
       <c r="E21">
-        <v>0.9394655758244376</v>
+        <v>0.9395153124172544</v>
       </c>
       <c r="F21">
-        <v>0.8570211068696735</v>
+        <v>0.8570823196307277</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020875124632678</v>
+        <v>1.020896388743681</v>
       </c>
       <c r="J21">
-        <v>0.9640782653370621</v>
+        <v>0.9641290245716996</v>
       </c>
       <c r="K21">
-        <v>0.980822896347471</v>
+        <v>0.9808641811657287</v>
       </c>
       <c r="L21">
-        <v>0.9556923140370371</v>
+        <v>0.9557409396192517</v>
       </c>
       <c r="M21">
-        <v>0.8753330339273454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8753924943870641</v>
+      </c>
+      <c r="N21">
+        <v>0.9767093645080499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.923044376224111</v>
+        <v>0.9231050877770226</v>
       </c>
       <c r="D22">
-        <v>0.9587828106296287</v>
+        <v>0.9588305494864702</v>
       </c>
       <c r="E22">
-        <v>0.9316665392895404</v>
+        <v>0.9317229540579545</v>
       </c>
       <c r="F22">
-        <v>0.8419385204303015</v>
+        <v>0.8420096324343523</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017973862051186</v>
+        <v>1.017997913616676</v>
       </c>
       <c r="J22">
-        <v>0.9575775861928205</v>
+        <v>0.957634939664051</v>
       </c>
       <c r="K22">
-        <v>0.9752175277487625</v>
+        <v>0.975264209608791</v>
       </c>
       <c r="L22">
-        <v>0.9487251554757103</v>
+        <v>0.9487802216228415</v>
       </c>
       <c r="M22">
-        <v>0.8614600766779271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8615289485299967</v>
+      </c>
+      <c r="N22">
+        <v>0.9721986357357909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9275330135359862</v>
+        <v>0.9275898027416034</v>
       </c>
       <c r="D23">
-        <v>0.9622005438398736</v>
+        <v>0.9622452509706089</v>
       </c>
       <c r="E23">
-        <v>0.935857067007446</v>
+        <v>0.9359098447875007</v>
       </c>
       <c r="F23">
-        <v>0.8500750285201956</v>
+        <v>0.8501406873349308</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019533684985308</v>
+        <v>1.019556221860506</v>
       </c>
       <c r="J23">
-        <v>0.9610701822305907</v>
+        <v>0.9611239540007795</v>
       </c>
       <c r="K23">
-        <v>0.9782287537632114</v>
+        <v>0.9782725033397419</v>
       </c>
       <c r="L23">
-        <v>0.9524707915587788</v>
+        <v>0.9525223522290286</v>
       </c>
       <c r="M23">
-        <v>0.8689428988021995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8690065924443664</v>
+      </c>
+      <c r="N23">
+        <v>0.9746220259532477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9440365309281915</v>
+        <v>0.9440798502415324</v>
       </c>
       <c r="D24">
-        <v>0.9747877358729969</v>
+        <v>0.974821978774182</v>
       </c>
       <c r="E24">
-        <v>0.9512147681788198</v>
+        <v>0.9512551131375612</v>
       </c>
       <c r="F24">
-        <v>0.8792881166498252</v>
+        <v>0.8793362108683863</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02522738506372</v>
+        <v>1.025244683589564</v>
       </c>
       <c r="J24">
-        <v>0.9738730929274227</v>
+        <v>0.9739144478614752</v>
       </c>
       <c r="K24">
-        <v>0.9892725621280203</v>
+        <v>0.9893061624060616</v>
       </c>
       <c r="L24">
-        <v>0.9661564245439993</v>
+        <v>0.9661959621952986</v>
       </c>
       <c r="M24">
-        <v>0.8958279898824492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8958748976722767</v>
+      </c>
+      <c r="N24">
+        <v>0.9835062897327778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9612850186932926</v>
+        <v>0.9613155482328085</v>
       </c>
       <c r="D25">
-        <v>0.9879728244662114</v>
+        <v>0.9879970521666822</v>
       </c>
       <c r="E25">
-        <v>0.9672005317556538</v>
+        <v>0.9672291356753622</v>
       </c>
       <c r="F25">
-        <v>0.9088535622101043</v>
+        <v>0.9088864228274955</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031093251659064</v>
+        <v>1.031105519117241</v>
       </c>
       <c r="J25">
-        <v>0.9871894309147342</v>
+        <v>0.9872188129143599</v>
       </c>
       <c r="K25">
-        <v>1.000760760962919</v>
+        <v>1.000784600739295</v>
       </c>
       <c r="L25">
-        <v>0.9803302924619071</v>
+        <v>0.980358412656854</v>
       </c>
       <c r="M25">
-        <v>0.9230533695889866</v>
+        <v>0.9230855767273181</v>
+      </c>
+      <c r="N25">
+        <v>0.9927446613345025</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9738908322039223</v>
+        <v>1.028244260730249</v>
       </c>
       <c r="D2">
-        <v>0.9976232467285737</v>
+        <v>1.045619575978618</v>
       </c>
       <c r="E2">
-        <v>0.9788530100283902</v>
+        <v>1.038580828373912</v>
       </c>
       <c r="F2">
-        <v>0.929958186201021</v>
+        <v>1.049607421983833</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035311842705729</v>
+        <v>1.059676994394379</v>
       </c>
       <c r="J2">
-        <v>0.9968815297825053</v>
+        <v>1.049611803630131</v>
       </c>
       <c r="K2">
-        <v>1.009115793113315</v>
+        <v>1.056477940130732</v>
       </c>
       <c r="L2">
-        <v>0.9906150351890303</v>
+        <v>1.049527616213579</v>
       </c>
       <c r="M2">
-        <v>0.9424879832031389</v>
+        <v>1.060416344296358</v>
       </c>
       <c r="N2">
-        <v>0.9994497037632297</v>
+        <v>1.051102372783442</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9824689964840208</v>
+        <v>1.037781300857948</v>
       </c>
       <c r="D3">
-        <v>1.004193514656374</v>
+        <v>1.053282907254098</v>
       </c>
       <c r="E3">
-        <v>0.9867706696977431</v>
+        <v>1.046961947013595</v>
       </c>
       <c r="F3">
-        <v>0.9441397392688233</v>
+        <v>1.058154876819705</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038139684594471</v>
+        <v>1.063089428972009</v>
       </c>
       <c r="J3">
-        <v>1.00344925761016</v>
+        <v>1.057292441589514</v>
       </c>
       <c r="K3">
-        <v>1.014773018408184</v>
+        <v>1.063276562465868</v>
       </c>
       <c r="L3">
-        <v>0.9975756683955159</v>
+        <v>1.057027234791175</v>
       </c>
       <c r="M3">
-        <v>0.9555410394457711</v>
+        <v>1.068094038802896</v>
       </c>
       <c r="N3">
-        <v>1.004003586811665</v>
+        <v>1.05879391812971</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9877964715624536</v>
+        <v>1.043728846396797</v>
       </c>
       <c r="D4">
-        <v>1.008274614582244</v>
+        <v>1.058063973416016</v>
       </c>
       <c r="E4">
-        <v>0.9916840453529275</v>
+        <v>1.05219070209715</v>
       </c>
       <c r="F4">
-        <v>0.9528794834818699</v>
+        <v>1.063490706589029</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03987633207168</v>
+        <v>1.065201144822232</v>
       </c>
       <c r="J4">
-        <v>1.007517581557972</v>
+        <v>1.062076456955266</v>
       </c>
       <c r="K4">
-        <v>1.01827418768818</v>
+        <v>1.067508703175281</v>
       </c>
       <c r="L4">
-        <v>1.001883883751456</v>
+        <v>1.06169753646046</v>
       </c>
       <c r="M4">
-        <v>0.9635819703503135</v>
+        <v>1.072878797908836</v>
       </c>
       <c r="N4">
-        <v>1.006822597676688</v>
+        <v>1.063584727346014</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.989986834019008</v>
+        <v>1.046179374388159</v>
       </c>
       <c r="D5">
-        <v>1.009952535690902</v>
+        <v>1.060034225493206</v>
       </c>
       <c r="E5">
-        <v>0.9937033852266145</v>
+        <v>1.054345463902838</v>
       </c>
       <c r="F5">
-        <v>0.9564590998407886</v>
+        <v>1.065690364532724</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040585580201691</v>
+        <v>1.066067218124831</v>
       </c>
       <c r="J5">
-        <v>1.009187749091743</v>
+        <v>1.064046109047398</v>
       </c>
       <c r="K5">
-        <v>1.019710682772658</v>
+        <v>1.069250506814788</v>
       </c>
       <c r="L5">
-        <v>1.003651878882796</v>
+        <v>1.063620131717204</v>
       </c>
       <c r="M5">
-        <v>0.9668744374290347</v>
+        <v>1.074849346225554</v>
       </c>
       <c r="N5">
-        <v>1.007979410210178</v>
+        <v>1.06555717657004</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9903518238482258</v>
+        <v>1.046588007592385</v>
       </c>
       <c r="D6">
-        <v>1.010232130876026</v>
+        <v>1.060362787337295</v>
       </c>
       <c r="E6">
-        <v>0.9940398358600118</v>
+        <v>1.054704797392692</v>
       </c>
       <c r="F6">
-        <v>0.9570548491376709</v>
+        <v>1.066057229773315</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040703483070348</v>
+        <v>1.06621140093219</v>
       </c>
       <c r="J6">
-        <v>1.009465910076821</v>
+        <v>1.064374465889629</v>
       </c>
       <c r="K6">
-        <v>1.019949874759797</v>
+        <v>1.069540841274641</v>
       </c>
       <c r="L6">
-        <v>1.003946299003607</v>
+        <v>1.063940629518038</v>
       </c>
       <c r="M6">
-        <v>0.967422338936042</v>
+        <v>1.075177886420996</v>
       </c>
       <c r="N6">
-        <v>1.008172044809941</v>
+        <v>1.06588599971665</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.987825927996112</v>
+        <v>1.043761781634482</v>
       </c>
       <c r="D7">
-        <v>1.008297179798608</v>
+        <v>1.058090452545745</v>
       </c>
       <c r="E7">
-        <v>0.9917112046895493</v>
+        <v>1.052219660796636</v>
       </c>
       <c r="F7">
-        <v>0.9529276740519543</v>
+        <v>1.063520265637804</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03988588916996</v>
+        <v>1.065212800859486</v>
       </c>
       <c r="J7">
-        <v>1.007540052193111</v>
+        <v>1.062102935130846</v>
       </c>
       <c r="K7">
-        <v>1.01829351789798</v>
+        <v>1.067532120921822</v>
       </c>
       <c r="L7">
-        <v>1.001907672948002</v>
+        <v>1.06172338300578</v>
       </c>
       <c r="M7">
-        <v>0.963626299020888</v>
+        <v>1.072905285828663</v>
       </c>
       <c r="N7">
-        <v>1.00683816349466</v>
+        <v>1.063611243123641</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.976838734414437</v>
+        <v>1.031515995911729</v>
       </c>
       <c r="D8">
-        <v>0.9998808990362432</v>
+        <v>1.048248005353906</v>
       </c>
       <c r="E8">
-        <v>0.9815748707717873</v>
+        <v>1.041455510390152</v>
       </c>
       <c r="F8">
-        <v>0.9348478418689664</v>
+        <v>1.052538442663633</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03628775963923</v>
+        <v>1.060851070786933</v>
       </c>
       <c r="J8">
-        <v>0.9991408143126893</v>
+        <v>1.052247876707565</v>
       </c>
       <c r="K8">
-        <v>1.011062483861519</v>
+        <v>1.058811804192769</v>
       </c>
       <c r="L8">
-        <v>0.993010344960921</v>
+        <v>1.052101760426168</v>
       </c>
       <c r="M8">
-        <v>0.9469891739243776</v>
+        <v>1.06305084170974</v>
       </c>
       <c r="N8">
-        <v>1.001016605007417</v>
+        <v>1.053742189387009</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9555475711401152</v>
+        <v>1.008034212795583</v>
       </c>
       <c r="D9">
-        <v>0.9835851494007859</v>
+        <v>1.029399050900644</v>
       </c>
       <c r="E9">
-        <v>0.9618895048326077</v>
+        <v>1.020837674511619</v>
       </c>
       <c r="F9">
-        <v>0.8990918681792909</v>
+        <v>1.031532033995525</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02915530188017</v>
+        <v>1.052356284065964</v>
       </c>
       <c r="J9">
-        <v>0.9827739871452694</v>
+        <v>1.033306417731757</v>
       </c>
       <c r="K9">
-        <v>0.9969502813467332</v>
+        <v>1.042032499849975</v>
       </c>
       <c r="L9">
-        <v>0.9756327205021864</v>
+        <v>1.033601485361036</v>
       </c>
       <c r="M9">
-        <v>0.9140658766738934</v>
+        <v>1.044133433078121</v>
       </c>
       <c r="N9">
-        <v>0.9896588432650167</v>
+        <v>1.034773831366839</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9396686408081324</v>
+        <v>0.9907847407834474</v>
       </c>
       <c r="D10">
-        <v>0.971454573380883</v>
+        <v>1.015582349535289</v>
       </c>
       <c r="E10">
-        <v>0.9471569813680525</v>
+        <v>1.005717440810557</v>
       </c>
       <c r="F10">
-        <v>0.8716249473965617</v>
+        <v>1.016148206316612</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023729898895353</v>
+        <v>1.046032543096934</v>
       </c>
       <c r="J10">
-        <v>0.9704987507111115</v>
+        <v>1.019368810407011</v>
       </c>
       <c r="K10">
-        <v>0.9863590876225178</v>
+        <v>1.02967584623097</v>
       </c>
       <c r="L10">
-        <v>0.9625507054307779</v>
+        <v>1.019984226758861</v>
       </c>
       <c r="M10">
-        <v>0.8887760257486704</v>
+        <v>1.030231895063813</v>
       </c>
       <c r="N10">
-        <v>0.9811338351925029</v>
+        <v>1.020816431041026</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9322738978949303</v>
+        <v>0.9828485385010154</v>
       </c>
       <c r="D11">
-        <v>0.9658144917782031</v>
+        <v>1.009236070694217</v>
       </c>
       <c r="E11">
-        <v>0.9402762167302329</v>
+        <v>0.9987696354591515</v>
       </c>
       <c r="F11">
-        <v>0.858540485727904</v>
+        <v>1.009084872440484</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021178979896338</v>
+        <v>1.043104935406596</v>
       </c>
       <c r="J11">
-        <v>0.9647632621117735</v>
+        <v>1.01295266473519</v>
       </c>
       <c r="K11">
-        <v>0.9814112347125896</v>
+        <v>1.02398588515326</v>
       </c>
       <c r="L11">
-        <v>0.9564197363991919</v>
+        <v>1.013714792012992</v>
       </c>
       <c r="M11">
-        <v>0.8767341445146267</v>
+        <v>1.023837471225973</v>
       </c>
       <c r="N11">
-        <v>0.9771499143995485</v>
+        <v>1.014391173706408</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9294353407814077</v>
+        <v>0.9798211703271124</v>
       </c>
       <c r="D12">
-        <v>0.963651209309654</v>
+        <v>1.006817147285839</v>
       </c>
       <c r="E12">
-        <v>0.9376309771899503</v>
+        <v>0.996120903665434</v>
       </c>
       <c r="F12">
-        <v>0.8534611357076459</v>
+        <v>1.006392988285572</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020196197753022</v>
+        <v>1.041985609987857</v>
       </c>
       <c r="J12">
-        <v>0.962558427909561</v>
+        <v>1.010504785734018</v>
       </c>
       <c r="K12">
-        <v>0.9795095767726416</v>
+        <v>1.021814896651619</v>
       </c>
       <c r="L12">
-        <v>0.9540592490587557</v>
+        <v>1.011322800303534</v>
       </c>
       <c r="M12">
-        <v>0.8720609891221208</v>
+        <v>1.021398725154296</v>
       </c>
       <c r="N12">
-        <v>0.9756184130187828</v>
+        <v>1.011939818436279</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9300486437747424</v>
+        <v>0.9804743188276628</v>
       </c>
       <c r="D13">
-        <v>0.9641185272284525</v>
+        <v>1.007338930853685</v>
       </c>
       <c r="E13">
-        <v>0.9382027109156855</v>
+        <v>0.9966922849895863</v>
       </c>
       <c r="F13">
-        <v>0.8545613942488034</v>
+        <v>1.006973637341176</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020408699416837</v>
+        <v>1.042227214004396</v>
       </c>
       <c r="J13">
-        <v>0.9630349592218491</v>
+        <v>1.011032923164966</v>
       </c>
       <c r="K13">
-        <v>0.9799205595624507</v>
+        <v>1.02228330003767</v>
       </c>
       <c r="L13">
-        <v>0.9545696013566812</v>
+        <v>1.011838883209594</v>
       </c>
       <c r="M13">
-        <v>0.8730731815250335</v>
+        <v>1.021924852638102</v>
       </c>
       <c r="N13">
-        <v>0.9759494150558453</v>
+        <v>1.012468705882957</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9320412298268387</v>
+        <v>0.982599977735941</v>
       </c>
       <c r="D14">
-        <v>0.9656371368213675</v>
+        <v>1.009037424354034</v>
       </c>
       <c r="E14">
-        <v>0.9400594816558921</v>
+        <v>0.9985521283301608</v>
       </c>
       <c r="F14">
-        <v>0.8581253798309554</v>
+        <v>1.008863803413311</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021098496081643</v>
+        <v>1.043013084150207</v>
       </c>
       <c r="J14">
-        <v>0.9645826055803765</v>
+        <v>1.012751688635427</v>
       </c>
       <c r="K14">
-        <v>0.9812554096117786</v>
+        <v>1.023807645147245</v>
       </c>
       <c r="L14">
-        <v>0.9562264050714363</v>
+        <v>1.013518405923854</v>
       </c>
       <c r="M14">
-        <v>0.8763522005921004</v>
+        <v>1.023637227370185</v>
       </c>
       <c r="N14">
-        <v>0.9770244278618871</v>
+        <v>1.014189912197532</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9332562771815677</v>
+        <v>0.9838988206307124</v>
       </c>
       <c r="D15">
-        <v>0.9665633981910359</v>
+        <v>1.010075522894459</v>
       </c>
       <c r="E15">
-        <v>0.9411911556172778</v>
+        <v>0.9996887684601209</v>
       </c>
       <c r="F15">
-        <v>0.8602907825265088</v>
+        <v>1.010019093584322</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021518657172369</v>
+        <v>1.043492946465528</v>
       </c>
       <c r="J15">
-        <v>0.9655259046876647</v>
+        <v>1.0138018668614</v>
       </c>
       <c r="K15">
-        <v>0.9820690689795011</v>
+        <v>1.024739012364108</v>
       </c>
       <c r="L15">
-        <v>0.9572357337621573</v>
+        <v>1.014544596277749</v>
       </c>
       <c r="M15">
-        <v>0.8783446769877937</v>
+        <v>1.024683614079164</v>
       </c>
       <c r="N15">
-        <v>0.9776796570215983</v>
+        <v>1.015241581797042</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9401473766354247</v>
+        <v>0.9913008424205711</v>
       </c>
       <c r="D16">
-        <v>0.9718199268175487</v>
+        <v>1.015995302165063</v>
       </c>
       <c r="E16">
-        <v>0.9476019616471226</v>
+        <v>1.006169468303521</v>
       </c>
       <c r="F16">
-        <v>0.8724650872805502</v>
+        <v>1.016607869210761</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023894554569841</v>
+        <v>1.04622257028308</v>
       </c>
       <c r="J16">
-        <v>0.9708696529439845</v>
+        <v>1.019786000796685</v>
       </c>
       <c r="K16">
-        <v>0.9866790923187512</v>
+        <v>1.030045792004442</v>
       </c>
       <c r="L16">
-        <v>0.9629467410337237</v>
+        <v>1.020391864331176</v>
       </c>
       <c r="M16">
-        <v>0.88954938182038</v>
+        <v>1.030647784304675</v>
       </c>
       <c r="N16">
-        <v>0.9813914607331921</v>
+        <v>1.021234213888906</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9443224112251198</v>
+        <v>0.9958128283286076</v>
       </c>
       <c r="D17">
-        <v>0.9750072031645748</v>
+        <v>1.019606731933007</v>
       </c>
       <c r="E17">
-        <v>0.9514803293700169</v>
+        <v>1.010122298776026</v>
       </c>
       <c r="F17">
-        <v>0.8797583217736107</v>
+        <v>1.02062809990178</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025327818082976</v>
+        <v>1.047881858876697</v>
       </c>
       <c r="J17">
-        <v>0.9741021442212454</v>
+        <v>1.023432869785368</v>
       </c>
       <c r="K17">
-        <v>0.9894681123928138</v>
+        <v>1.033279501093211</v>
       </c>
       <c r="L17">
-        <v>0.9663961525698578</v>
+        <v>1.023955145032644</v>
       </c>
       <c r="M17">
-        <v>0.8962635215054573</v>
+        <v>1.034283859072384</v>
       </c>
       <c r="N17">
-        <v>0.9836366541604877</v>
+        <v>1.024886261849854</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9467086626568869</v>
+        <v>0.9984002433245781</v>
       </c>
       <c r="D18">
-        <v>0.9768297104401341</v>
+        <v>1.021678676095458</v>
       </c>
       <c r="E18">
-        <v>0.9536952611814631</v>
+        <v>1.012389859235392</v>
       </c>
       <c r="F18">
-        <v>0.8839007019470578</v>
+        <v>1.022934841904033</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026144753590571</v>
+        <v>1.048831682905708</v>
       </c>
       <c r="J18">
-        <v>0.9759479603487223</v>
+        <v>1.025523824070418</v>
       </c>
       <c r="K18">
-        <v>0.9910607494255125</v>
+        <v>1.035133412997843</v>
       </c>
       <c r="L18">
-        <v>0.9683641927439421</v>
+        <v>1.025998100606855</v>
       </c>
       <c r="M18">
-        <v>0.9000774405874743</v>
+        <v>1.036369094686836</v>
       </c>
       <c r="N18">
-        <v>0.9849186328053144</v>
+        <v>1.026980185529825</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.947514364761829</v>
+        <v>0.9992752181432648</v>
       </c>
       <c r="D19">
-        <v>0.9774451959535123</v>
+        <v>1.022379489000849</v>
       </c>
       <c r="E19">
-        <v>0.9544428431787375</v>
+        <v>1.013156797658071</v>
       </c>
       <c r="F19">
-        <v>0.8852952273241158</v>
+        <v>1.023715118726071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026420202545596</v>
+        <v>1.049152587449965</v>
       </c>
       <c r="J19">
-        <v>0.976570903814704</v>
+        <v>1.026230847306034</v>
       </c>
       <c r="K19">
-        <v>0.9915982494920457</v>
+        <v>1.035760255743134</v>
       </c>
       <c r="L19">
-        <v>0.9690281272812062</v>
+        <v>1.026688880736586</v>
       </c>
       <c r="M19">
-        <v>0.9013614513022301</v>
+        <v>1.037074261973893</v>
       </c>
       <c r="N19">
-        <v>0.9853512725319419</v>
+        <v>1.027688212819532</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9438796229120013</v>
+        <v>0.99533338417163</v>
       </c>
       <c r="D20">
-        <v>0.9746690857728578</v>
+        <v>1.019222879060836</v>
       </c>
       <c r="E20">
-        <v>0.9510691935322696</v>
+        <v>1.009702185929347</v>
       </c>
       <c r="F20">
-        <v>0.8789876232588798</v>
+        <v>1.020200769499114</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025176045573019</v>
+        <v>1.047705718631843</v>
       </c>
       <c r="J20">
-        <v>0.9737594999936291</v>
+        <v>1.023045388871508</v>
       </c>
       <c r="K20">
-        <v>0.9891724690486341</v>
+        <v>1.032935934132083</v>
       </c>
       <c r="L20">
-        <v>0.9660306909786113</v>
+        <v>1.02357655280471</v>
       </c>
       <c r="M20">
-        <v>0.895553966846853</v>
+        <v>1.033897475587966</v>
       </c>
       <c r="N20">
-        <v>0.9833986703396673</v>
+        <v>1.024498230668651</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9314571294666113</v>
+        <v>0.9819763030871748</v>
       </c>
       <c r="D21">
-        <v>0.965191925985449</v>
+        <v>1.008539024749627</v>
       </c>
       <c r="E21">
-        <v>0.9395153124172544</v>
+        <v>0.9980063984252419</v>
       </c>
       <c r="F21">
-        <v>0.8570823196307277</v>
+        <v>1.008309151114028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020896388743681</v>
+        <v>1.042782575874739</v>
       </c>
       <c r="J21">
-        <v>0.9641290245716996</v>
+        <v>1.012247405756159</v>
       </c>
       <c r="K21">
-        <v>0.9808641811657287</v>
+        <v>1.023360408637687</v>
       </c>
       <c r="L21">
-        <v>0.9557409396192517</v>
+        <v>1.013025638888881</v>
       </c>
       <c r="M21">
-        <v>0.8753924943870641</v>
+        <v>1.023134795668061</v>
       </c>
       <c r="N21">
-        <v>0.9767093645080499</v>
+        <v>1.013684913178733</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9231050877770226</v>
+        <v>0.9731121089315306</v>
       </c>
       <c r="D22">
-        <v>0.9588305494864702</v>
+        <v>1.001460546796514</v>
       </c>
       <c r="E22">
-        <v>0.9317229540579545</v>
+        <v>0.9902542746879367</v>
       </c>
       <c r="F22">
-        <v>0.8420096324343523</v>
+        <v>1.000432493815088</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017997913616676</v>
+        <v>1.039500532107268</v>
       </c>
       <c r="J22">
-        <v>0.957634939664051</v>
+        <v>1.005079543189977</v>
       </c>
       <c r="K22">
-        <v>0.975264209608791</v>
+        <v>1.017003125389847</v>
       </c>
       <c r="L22">
-        <v>0.9487802216228415</v>
+        <v>1.006021300499573</v>
       </c>
       <c r="M22">
-        <v>0.8615289485299967</v>
+        <v>1.01599538778468</v>
       </c>
       <c r="N22">
-        <v>0.9721986357357909</v>
+        <v>1.006506871425542</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9275898027416034</v>
+        <v>0.9778589830022146</v>
       </c>
       <c r="D23">
-        <v>0.9622452509706089</v>
+        <v>1.005249923099333</v>
       </c>
       <c r="E23">
-        <v>0.9359098447875007</v>
+        <v>0.9944046202975606</v>
       </c>
       <c r="F23">
-        <v>0.8501406873349308</v>
+        <v>1.00464900194763</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019556221860506</v>
+        <v>1.04125942498537</v>
       </c>
       <c r="J23">
-        <v>0.9611239540007795</v>
+        <v>1.0089181213397</v>
       </c>
       <c r="K23">
-        <v>0.9782725033397419</v>
+        <v>1.020407672052458</v>
       </c>
       <c r="L23">
-        <v>0.9525223522290286</v>
+        <v>1.009772340926747</v>
       </c>
       <c r="M23">
-        <v>0.8690065924443664</v>
+        <v>1.019818229860472</v>
       </c>
       <c r="N23">
-        <v>0.9746220259532477</v>
+        <v>1.010350900796528</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9440798502415324</v>
+        <v>0.9955501607146133</v>
       </c>
       <c r="D24">
-        <v>0.974821978774182</v>
+        <v>1.019396431877731</v>
       </c>
       <c r="E24">
-        <v>0.9512551131375612</v>
+        <v>1.009892133877128</v>
       </c>
       <c r="F24">
-        <v>0.8793362108683863</v>
+        <v>1.020393979155033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025244683589564</v>
+        <v>1.04778536423258</v>
       </c>
       <c r="J24">
-        <v>0.9739144478614752</v>
+        <v>1.023220586149591</v>
       </c>
       <c r="K24">
-        <v>0.9893061624060616</v>
+        <v>1.033091276454791</v>
       </c>
       <c r="L24">
-        <v>0.9661959621952986</v>
+        <v>1.023747731343142</v>
       </c>
       <c r="M24">
-        <v>0.8958748976722767</v>
+        <v>1.034072175211426</v>
       </c>
       <c r="N24">
-        <v>0.9835062897327778</v>
+        <v>1.024673676746965</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9613155482328085</v>
+        <v>1.014359823599569</v>
       </c>
       <c r="D25">
-        <v>0.9879970521666822</v>
+        <v>1.034472684319522</v>
       </c>
       <c r="E25">
-        <v>0.9672291356753622</v>
+        <v>1.026388274844932</v>
       </c>
       <c r="F25">
-        <v>0.9088864228274955</v>
+        <v>1.037183796017333</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031105519117241</v>
+        <v>1.054659170535167</v>
       </c>
       <c r="J25">
-        <v>0.9872188129143599</v>
+        <v>1.038413401499744</v>
       </c>
       <c r="K25">
-        <v>1.000784600739295</v>
+        <v>1.046558428410192</v>
       </c>
       <c r="L25">
-        <v>0.980358412656854</v>
+        <v>1.038590306136847</v>
       </c>
       <c r="M25">
-        <v>0.9230855767273181</v>
+        <v>1.049231056307387</v>
       </c>
       <c r="N25">
-        <v>0.9927446613345025</v>
+        <v>1.039888067637555</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
@@ -418,40 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028244260730249</v>
+        <v>1.014967096787446</v>
       </c>
       <c r="D2">
-        <v>1.045619575978618</v>
+        <v>1.029411661310173</v>
       </c>
       <c r="E2">
-        <v>1.038580828373912</v>
-      </c>
-      <c r="F2">
-        <v>1.049607421983833</v>
+        <v>1.0192014968856</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059676994394379</v>
+        <v>1.04750074035712</v>
       </c>
       <c r="J2">
-        <v>1.049611803630131</v>
+        <v>1.036709177845102</v>
       </c>
       <c r="K2">
-        <v>1.056477940130732</v>
+        <v>1.040475905124886</v>
       </c>
       <c r="L2">
-        <v>1.049527616213579</v>
-      </c>
-      <c r="M2">
-        <v>1.060416344296358</v>
+        <v>1.030399651959182</v>
       </c>
       <c r="N2">
-        <v>1.051102372783442</v>
+        <v>1.038181423789868</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037781300857948</v>
+        <v>1.0202873998123</v>
       </c>
       <c r="D3">
-        <v>1.053282907254098</v>
+        <v>1.033419825948</v>
       </c>
       <c r="E3">
-        <v>1.046961947013595</v>
-      </c>
-      <c r="F3">
-        <v>1.058154876819705</v>
+        <v>1.023530940880928</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063089428972009</v>
+        <v>1.049231517291294</v>
       </c>
       <c r="J3">
-        <v>1.057292441589514</v>
+        <v>1.040239883836081</v>
       </c>
       <c r="K3">
-        <v>1.063276562465868</v>
+        <v>1.043642231232319</v>
       </c>
       <c r="L3">
-        <v>1.057027234791175</v>
-      </c>
-      <c r="M3">
-        <v>1.068094038802896</v>
+        <v>1.033871337880795</v>
       </c>
       <c r="N3">
-        <v>1.05879391812971</v>
+        <v>1.041717143788311</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043728846396797</v>
+        <v>1.023649909106377</v>
       </c>
       <c r="D4">
-        <v>1.058063973416016</v>
+        <v>1.03595553728434</v>
       </c>
       <c r="E4">
-        <v>1.05219070209715</v>
-      </c>
-      <c r="F4">
-        <v>1.063490706589029</v>
+        <v>1.026272922870357</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065201144822232</v>
+        <v>1.050315847526933</v>
       </c>
       <c r="J4">
-        <v>1.062076456955266</v>
+        <v>1.04246740274701</v>
       </c>
       <c r="K4">
-        <v>1.067508703175281</v>
+        <v>1.045638545494085</v>
       </c>
       <c r="L4">
-        <v>1.06169753646046</v>
-      </c>
-      <c r="M4">
-        <v>1.072878797908836</v>
+        <v>1.03606426961486</v>
       </c>
       <c r="N4">
-        <v>1.063584727346014</v>
+        <v>1.043947826031594</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046179374388159</v>
+        <v>1.02504511410845</v>
       </c>
       <c r="D5">
-        <v>1.060034225493206</v>
+        <v>1.037008215357935</v>
       </c>
       <c r="E5">
-        <v>1.054345463902838</v>
-      </c>
-      <c r="F5">
-        <v>1.065690364532724</v>
+        <v>1.027411969898518</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066067218124831</v>
+        <v>1.05076343683674</v>
       </c>
       <c r="J5">
-        <v>1.064046109047398</v>
+        <v>1.043390679235944</v>
       </c>
       <c r="K5">
-        <v>1.069250506814788</v>
+        <v>1.046465663002097</v>
       </c>
       <c r="L5">
-        <v>1.063620131717204</v>
-      </c>
-      <c r="M5">
-        <v>1.074849346225554</v>
+        <v>1.03697384392649</v>
       </c>
       <c r="N5">
-        <v>1.06555717657004</v>
+        <v>1.044872413679042</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046588007592385</v>
+        <v>1.02527831830943</v>
       </c>
       <c r="D6">
-        <v>1.060362787337295</v>
+        <v>1.03718419700909</v>
       </c>
       <c r="E6">
-        <v>1.054704797392692</v>
-      </c>
-      <c r="F6">
-        <v>1.066057229773315</v>
+        <v>1.027602434044596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06621140093219</v>
+        <v>1.050838111749978</v>
       </c>
       <c r="J6">
-        <v>1.064374465889629</v>
+        <v>1.043544942798053</v>
       </c>
       <c r="K6">
-        <v>1.069540841274641</v>
+        <v>1.046603840451112</v>
       </c>
       <c r="L6">
-        <v>1.063940629518038</v>
-      </c>
-      <c r="M6">
-        <v>1.075177886420996</v>
+        <v>1.037125855314613</v>
       </c>
       <c r="N6">
-        <v>1.06588599971665</v>
+        <v>1.045026896313104</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043761781634482</v>
+        <v>1.023668623183198</v>
       </c>
       <c r="D7">
-        <v>1.058090452545745</v>
+        <v>1.035969654961087</v>
       </c>
       <c r="E7">
-        <v>1.052219660796636</v>
-      </c>
-      <c r="F7">
-        <v>1.063520265637804</v>
+        <v>1.026288195926126</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065212800859486</v>
+        <v>1.050321860373353</v>
       </c>
       <c r="J7">
-        <v>1.062102935130846</v>
+        <v>1.042479790738847</v>
       </c>
       <c r="K7">
-        <v>1.067532120921822</v>
+        <v>1.045649644591493</v>
       </c>
       <c r="L7">
-        <v>1.06172338300578</v>
-      </c>
-      <c r="M7">
-        <v>1.072905285828663</v>
+        <v>1.036076471254609</v>
       </c>
       <c r="N7">
-        <v>1.063611243123641</v>
+        <v>1.043960231615799</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031515995911729</v>
+        <v>1.016782183043451</v>
       </c>
       <c r="D8">
-        <v>1.048248005353906</v>
+        <v>1.030778532966632</v>
       </c>
       <c r="E8">
-        <v>1.041455510390152</v>
-      </c>
-      <c r="F8">
-        <v>1.052538442663633</v>
+        <v>1.02067730651213</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060851070786933</v>
+        <v>1.048093196339124</v>
       </c>
       <c r="J8">
-        <v>1.052247876707565</v>
+        <v>1.037914522568414</v>
       </c>
       <c r="K8">
-        <v>1.058811804192769</v>
+        <v>1.041557124530487</v>
       </c>
       <c r="L8">
-        <v>1.052101760426168</v>
-      </c>
-      <c r="M8">
-        <v>1.06305084170974</v>
+        <v>1.031584289486941</v>
       </c>
       <c r="N8">
-        <v>1.053742189387009</v>
+        <v>1.039388480240921</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008034212795583</v>
+        <v>1.00399656988562</v>
       </c>
       <c r="D9">
-        <v>1.029399050900644</v>
+        <v>1.021163531927754</v>
       </c>
       <c r="E9">
-        <v>1.020837674511619</v>
-      </c>
-      <c r="F9">
-        <v>1.031532033995525</v>
+        <v>1.010308292632752</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052356284065964</v>
+        <v>1.04388088401936</v>
       </c>
       <c r="J9">
-        <v>1.033306417731757</v>
+        <v>1.029408984052711</v>
       </c>
       <c r="K9">
-        <v>1.042032499849975</v>
+        <v>1.033922329958718</v>
       </c>
       <c r="L9">
-        <v>1.033601485361036</v>
-      </c>
-      <c r="M9">
-        <v>1.044133433078121</v>
+        <v>1.023236309952781</v>
       </c>
       <c r="N9">
-        <v>1.034773831366839</v>
+        <v>1.030870862884927</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9907847407834474</v>
+        <v>0.9949785548073917</v>
       </c>
       <c r="D10">
-        <v>1.015582349535289</v>
+        <v>1.014402065174014</v>
       </c>
       <c r="E10">
-        <v>1.005717440810557</v>
-      </c>
-      <c r="F10">
-        <v>1.016148206316612</v>
+        <v>1.00303160428296</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046032543096934</v>
+        <v>1.040862117546846</v>
       </c>
       <c r="J10">
-        <v>1.019368810407011</v>
+        <v>1.02339282748834</v>
       </c>
       <c r="K10">
-        <v>1.02967584623097</v>
+        <v>1.028516065227788</v>
       </c>
       <c r="L10">
-        <v>1.019984226758861</v>
-      </c>
-      <c r="M10">
-        <v>1.030231895063813</v>
+        <v>1.017346337065652</v>
       </c>
       <c r="N10">
-        <v>1.020816431041026</v>
+        <v>1.024846162688172</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9828485385010154</v>
+        <v>0.9909423739990636</v>
       </c>
       <c r="D11">
-        <v>1.009236070694217</v>
+        <v>1.011381762605415</v>
       </c>
       <c r="E11">
-        <v>0.9987696354591515</v>
-      </c>
-      <c r="F11">
-        <v>1.009084872440484</v>
+        <v>0.9997845103691717</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043104935406596</v>
+        <v>1.03950035317016</v>
       </c>
       <c r="J11">
-        <v>1.01295266473519</v>
+        <v>1.020696876498276</v>
       </c>
       <c r="K11">
-        <v>1.02398588515326</v>
+        <v>1.026092180847497</v>
       </c>
       <c r="L11">
-        <v>1.013714792012992</v>
-      </c>
-      <c r="M11">
-        <v>1.023837471225973</v>
+        <v>1.01471049165342</v>
       </c>
       <c r="N11">
-        <v>1.014391173706408</v>
+        <v>1.022146383138472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9798211703271124</v>
+        <v>0.9894221085761036</v>
       </c>
       <c r="D12">
-        <v>1.006817147285839</v>
+        <v>1.010245128276477</v>
       </c>
       <c r="E12">
-        <v>0.996120903665434</v>
-      </c>
-      <c r="F12">
-        <v>1.006392988285572</v>
+        <v>0.9985630128931912</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041985609987857</v>
+        <v>1.038985890318347</v>
       </c>
       <c r="J12">
-        <v>1.010504785734018</v>
+        <v>1.019680989955813</v>
       </c>
       <c r="K12">
-        <v>1.021814896651619</v>
+        <v>1.025178645205781</v>
       </c>
       <c r="L12">
-        <v>1.011322800303534</v>
-      </c>
-      <c r="M12">
-        <v>1.021398725154296</v>
+        <v>1.013717795187526</v>
       </c>
       <c r="N12">
-        <v>1.011939818436279</v>
+        <v>1.021129053920595</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9804743188276628</v>
+        <v>0.9897491855889521</v>
       </c>
       <c r="D13">
-        <v>1.007338930853685</v>
+        <v>1.010489622634885</v>
       </c>
       <c r="E13">
-        <v>0.9966922849895863</v>
-      </c>
-      <c r="F13">
-        <v>1.006973637341176</v>
+        <v>0.9988257400101959</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042227214004396</v>
+        <v>1.039096642887151</v>
       </c>
       <c r="J13">
-        <v>1.011032923164966</v>
+        <v>1.019899570917545</v>
       </c>
       <c r="K13">
-        <v>1.02228330003767</v>
+        <v>1.025375211420775</v>
       </c>
       <c r="L13">
-        <v>1.011838883209594</v>
-      </c>
-      <c r="M13">
-        <v>1.021924852638102</v>
+        <v>1.013931361960853</v>
       </c>
       <c r="N13">
-        <v>1.012468705882957</v>
+        <v>1.021347945292364</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.982599977735941</v>
+        <v>0.9908171457968018</v>
       </c>
       <c r="D14">
-        <v>1.009037424354034</v>
+        <v>1.011288114351993</v>
       </c>
       <c r="E14">
-        <v>0.9985521283301608</v>
-      </c>
-      <c r="F14">
-        <v>1.008863803413311</v>
+        <v>0.9996838604152858</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043013084150207</v>
+        <v>1.039458006483732</v>
       </c>
       <c r="J14">
-        <v>1.012751688635427</v>
+        <v>1.020613203657832</v>
       </c>
       <c r="K14">
-        <v>1.023807645147245</v>
+        <v>1.026016941406599</v>
       </c>
       <c r="L14">
-        <v>1.013518405923854</v>
-      </c>
-      <c r="M14">
-        <v>1.023637227370185</v>
+        <v>1.014628717820811</v>
       </c>
       <c r="N14">
-        <v>1.014189912197532</v>
+        <v>1.022062591472997</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9838988206307124</v>
+        <v>0.9914723208423758</v>
       </c>
       <c r="D15">
-        <v>1.010075522894459</v>
+        <v>1.011778108853414</v>
       </c>
       <c r="E15">
-        <v>0.9996887684601209</v>
-      </c>
-      <c r="F15">
-        <v>1.010019093584322</v>
+        <v>1.000210509487609</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043492946465528</v>
+        <v>1.039679495542989</v>
       </c>
       <c r="J15">
-        <v>1.0138018668614</v>
+        <v>1.021050950163284</v>
       </c>
       <c r="K15">
-        <v>1.024739012364108</v>
+        <v>1.026410560587007</v>
       </c>
       <c r="L15">
-        <v>1.014544596277749</v>
-      </c>
-      <c r="M15">
-        <v>1.024683614079164</v>
+        <v>1.015056551465532</v>
       </c>
       <c r="N15">
-        <v>1.015241581797042</v>
+        <v>1.022500959628697</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9913008424205711</v>
+        <v>0.9952435460894299</v>
       </c>
       <c r="D16">
-        <v>1.015995302165063</v>
+        <v>1.014600491496213</v>
       </c>
       <c r="E16">
-        <v>1.006169468303521</v>
-      </c>
-      <c r="F16">
-        <v>1.016607869210761</v>
+        <v>1.003244998493724</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04622257028308</v>
+        <v>1.040951306142129</v>
       </c>
       <c r="J16">
-        <v>1.019786000796685</v>
+        <v>1.023569764037231</v>
       </c>
       <c r="K16">
-        <v>1.030045792004442</v>
+        <v>1.028675121600434</v>
       </c>
       <c r="L16">
-        <v>1.020391864331176</v>
-      </c>
-      <c r="M16">
-        <v>1.030647784304675</v>
+        <v>1.017519403355541</v>
       </c>
       <c r="N16">
-        <v>1.021234213888906</v>
+        <v>1.025023350507257</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9958128283286076</v>
+        <v>0.9975730821513346</v>
       </c>
       <c r="D17">
-        <v>1.019606731933007</v>
+        <v>1.016345539055237</v>
       </c>
       <c r="E17">
-        <v>1.010122298776026</v>
-      </c>
-      <c r="F17">
-        <v>1.02062809990178</v>
+        <v>1.005122059244551</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047881858876697</v>
+        <v>1.04173415925312</v>
       </c>
       <c r="J17">
-        <v>1.023432869785368</v>
+        <v>1.025124843760892</v>
       </c>
       <c r="K17">
-        <v>1.033279501093211</v>
+        <v>1.030072915628668</v>
       </c>
       <c r="L17">
-        <v>1.023955145032644</v>
-      </c>
-      <c r="M17">
-        <v>1.034283859072384</v>
+        <v>1.019040872308236</v>
       </c>
       <c r="N17">
-        <v>1.024886261849854</v>
+        <v>1.026580638622495</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9984002433245781</v>
+        <v>0.998919285512509</v>
       </c>
       <c r="D18">
-        <v>1.021678676095458</v>
+        <v>1.017354528217458</v>
       </c>
       <c r="E18">
-        <v>1.012389859235392</v>
-      </c>
-      <c r="F18">
-        <v>1.022934841904033</v>
+        <v>1.006207697603319</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048831682905708</v>
+        <v>1.042185545755131</v>
       </c>
       <c r="J18">
-        <v>1.025523824070418</v>
+        <v>1.026023183202911</v>
       </c>
       <c r="K18">
-        <v>1.035133412997843</v>
+        <v>1.030880276078669</v>
       </c>
       <c r="L18">
-        <v>1.025998100606855</v>
-      </c>
-      <c r="M18">
-        <v>1.036369094686836</v>
+        <v>1.019920131565217</v>
       </c>
       <c r="N18">
-        <v>1.026980185529825</v>
+        <v>1.027480253809563</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9992752181432648</v>
+        <v>0.99937621122383</v>
       </c>
       <c r="D19">
-        <v>1.022379489000849</v>
+        <v>1.017697088191529</v>
       </c>
       <c r="E19">
-        <v>1.013156797658071</v>
-      </c>
-      <c r="F19">
-        <v>1.023715118726071</v>
+        <v>1.006576335241082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049152587449965</v>
+        <v>1.042338581026099</v>
       </c>
       <c r="J19">
-        <v>1.026230847306034</v>
+        <v>1.026328040089351</v>
       </c>
       <c r="K19">
-        <v>1.035760255743134</v>
+        <v>1.031154238180827</v>
       </c>
       <c r="L19">
-        <v>1.026688880736586</v>
-      </c>
-      <c r="M19">
-        <v>1.037074261973893</v>
+        <v>1.020218570315653</v>
       </c>
       <c r="N19">
-        <v>1.027688212819532</v>
+        <v>1.02778554362775</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.99533338417163</v>
+        <v>0.9973244548979403</v>
       </c>
       <c r="D20">
-        <v>1.019222879060836</v>
+        <v>1.016159235137839</v>
       </c>
       <c r="E20">
-        <v>1.009702185929347</v>
-      </c>
-      <c r="F20">
-        <v>1.020200769499114</v>
+        <v>1.004921628424036</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047705718631843</v>
+        <v>1.041650711403957</v>
       </c>
       <c r="J20">
-        <v>1.023045388871508</v>
+        <v>1.024958905354971</v>
       </c>
       <c r="K20">
-        <v>1.032935934132083</v>
+        <v>1.029923772903225</v>
       </c>
       <c r="L20">
-        <v>1.02357655280471</v>
-      </c>
-      <c r="M20">
-        <v>1.033897475587966</v>
+        <v>1.018878485481365</v>
       </c>
       <c r="N20">
-        <v>1.024498230668651</v>
+        <v>1.026414464565005</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9819763030871748</v>
+        <v>0.9905032503382631</v>
       </c>
       <c r="D21">
-        <v>1.008539024749627</v>
+        <v>1.011053393114906</v>
       </c>
       <c r="E21">
-        <v>0.9980063984252419</v>
-      </c>
-      <c r="F21">
-        <v>1.008309151114028</v>
+        <v>0.9994315977765286</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042782575874739</v>
+        <v>1.039351836197072</v>
       </c>
       <c r="J21">
-        <v>1.012247405756159</v>
+        <v>1.020403463641334</v>
       </c>
       <c r="K21">
-        <v>1.023360408637687</v>
+        <v>1.025828338458413</v>
       </c>
       <c r="L21">
-        <v>1.013025638888881</v>
-      </c>
-      <c r="M21">
-        <v>1.023134795668061</v>
+        <v>1.014423746719858</v>
       </c>
       <c r="N21">
-        <v>1.013684913178733</v>
+        <v>1.021852553601618</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9731121089315306</v>
+        <v>0.9860919700239121</v>
       </c>
       <c r="D22">
-        <v>1.001460546796514</v>
+        <v>1.007757275568458</v>
       </c>
       <c r="E22">
-        <v>0.9902542746879367</v>
-      </c>
-      <c r="F22">
-        <v>1.000432493815088</v>
+        <v>0.9958902848553016</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039500532107268</v>
+        <v>1.037856192198958</v>
       </c>
       <c r="J22">
-        <v>1.005079543189977</v>
+        <v>1.017454974802591</v>
       </c>
       <c r="K22">
-        <v>1.017003125389847</v>
+        <v>1.02317660989756</v>
       </c>
       <c r="L22">
-        <v>1.006021300499573</v>
-      </c>
-      <c r="M22">
-        <v>1.01599538778468</v>
+        <v>1.011543598014249</v>
       </c>
       <c r="N22">
-        <v>1.006506871425542</v>
+        <v>1.018899877570528</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9778589830022146</v>
+        <v>0.9884425578492708</v>
       </c>
       <c r="D23">
-        <v>1.005249923099333</v>
+        <v>1.009513054705891</v>
       </c>
       <c r="E23">
-        <v>0.9944046202975606</v>
-      </c>
-      <c r="F23">
-        <v>1.00464900194763</v>
+        <v>0.9977764158441703</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04125942498537</v>
+        <v>1.038653980470945</v>
       </c>
       <c r="J23">
-        <v>1.0089181213397</v>
+        <v>1.019026312078221</v>
       </c>
       <c r="K23">
-        <v>1.020407672052458</v>
+        <v>1.024589880867427</v>
       </c>
       <c r="L23">
-        <v>1.009772340926747</v>
-      </c>
-      <c r="M23">
-        <v>1.019818229860472</v>
+        <v>1.013078215273663</v>
       </c>
       <c r="N23">
-        <v>1.010350900796528</v>
+        <v>1.020473446325324</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9955501607146133</v>
+        <v>0.9974368376169223</v>
       </c>
       <c r="D24">
-        <v>1.019396431877731</v>
+        <v>1.016243445199344</v>
       </c>
       <c r="E24">
-        <v>1.009892133877128</v>
-      </c>
-      <c r="F24">
-        <v>1.020393979155033</v>
+        <v>1.005012222907405</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04778536423258</v>
+        <v>1.041688434051232</v>
       </c>
       <c r="J24">
-        <v>1.023220586149591</v>
+        <v>1.02503391264015</v>
       </c>
       <c r="K24">
-        <v>1.033091276454791</v>
+        <v>1.02999118859214</v>
       </c>
       <c r="L24">
-        <v>1.023747731343142</v>
-      </c>
-      <c r="M24">
-        <v>1.034072175211426</v>
+        <v>1.01895188634348</v>
       </c>
       <c r="N24">
-        <v>1.024673676746965</v>
+        <v>1.026489578369132</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014359823599569</v>
+        <v>1.007384646668195</v>
       </c>
       <c r="D25">
-        <v>1.034472684319522</v>
+        <v>1.023708296605299</v>
       </c>
       <c r="E25">
-        <v>1.026388274844932</v>
-      </c>
-      <c r="F25">
-        <v>1.037183796017333</v>
+        <v>1.013049971964846</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054659170535167</v>
+        <v>1.045005507882945</v>
       </c>
       <c r="J25">
-        <v>1.038413401499744</v>
+        <v>1.031666018376497</v>
       </c>
       <c r="K25">
-        <v>1.046558428410192</v>
+        <v>1.0359493913833</v>
       </c>
       <c r="L25">
-        <v>1.038590306136847</v>
-      </c>
-      <c r="M25">
-        <v>1.049231056307387</v>
+        <v>1.025449026190232</v>
       </c>
       <c r="N25">
-        <v>1.039888067637555</v>
+        <v>1.033131102456338</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014967096787446</v>
+        <v>1.042317241594426</v>
       </c>
       <c r="D2">
-        <v>1.029411661310173</v>
+        <v>1.044400203749006</v>
       </c>
       <c r="E2">
-        <v>1.0192014968856</v>
+        <v>1.040457699264844</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04750074035712</v>
+        <v>1.040207630358473</v>
       </c>
       <c r="J2">
-        <v>1.036709177845102</v>
+        <v>1.047393714385075</v>
       </c>
       <c r="K2">
-        <v>1.040475905124886</v>
+        <v>1.047171360447787</v>
       </c>
       <c r="L2">
-        <v>1.030399651959182</v>
+        <v>1.043239992214065</v>
       </c>
       <c r="N2">
-        <v>1.038181423789868</v>
+        <v>1.04888113359724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.0202873998123</v>
+        <v>1.043408665579052</v>
       </c>
       <c r="D3">
-        <v>1.033419825948</v>
+        <v>1.045236430196119</v>
       </c>
       <c r="E3">
-        <v>1.023530940880928</v>
+        <v>1.041390449100146</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049231517291294</v>
+        <v>1.040501075415373</v>
       </c>
       <c r="J3">
-        <v>1.040239883836081</v>
+        <v>1.048130821618611</v>
       </c>
       <c r="K3">
-        <v>1.043642231232319</v>
+        <v>1.047818751919913</v>
       </c>
       <c r="L3">
-        <v>1.033871337880795</v>
+        <v>1.04398284759735</v>
       </c>
       <c r="N3">
-        <v>1.041717143788311</v>
+        <v>1.049619287607595</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023649909106377</v>
+        <v>1.044114784836014</v>
       </c>
       <c r="D4">
-        <v>1.03595553728434</v>
+        <v>1.045777368545556</v>
       </c>
       <c r="E4">
-        <v>1.026272922870357</v>
+        <v>1.041994239347107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050315847526933</v>
+        <v>1.040689708234716</v>
       </c>
       <c r="J4">
-        <v>1.04246740274701</v>
+        <v>1.048607110593754</v>
       </c>
       <c r="K4">
-        <v>1.045638545494085</v>
+        <v>1.048236856169141</v>
       </c>
       <c r="L4">
-        <v>1.03606426961486</v>
+        <v>1.044463139146786</v>
       </c>
       <c r="N4">
-        <v>1.043947826031594</v>
+        <v>1.050096252967714</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02504511410845</v>
+        <v>1.044411612740209</v>
       </c>
       <c r="D5">
-        <v>1.037008215357935</v>
+        <v>1.04600474136051</v>
       </c>
       <c r="E5">
-        <v>1.027411969898518</v>
+        <v>1.042248129720167</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05076343683674</v>
+        <v>1.040768711179763</v>
       </c>
       <c r="J5">
-        <v>1.043390679235944</v>
+        <v>1.048807182399437</v>
       </c>
       <c r="K5">
-        <v>1.046465663002097</v>
+        <v>1.048412435254003</v>
       </c>
       <c r="L5">
-        <v>1.03697384392649</v>
+        <v>1.044664961330264</v>
       </c>
       <c r="N5">
-        <v>1.044872413679042</v>
+        <v>1.050296608898309</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02527831830943</v>
+        <v>1.044461450022087</v>
       </c>
       <c r="D6">
-        <v>1.03718419700909</v>
+        <v>1.046042916039021</v>
       </c>
       <c r="E6">
-        <v>1.027602434044596</v>
+        <v>1.042290762364928</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050838111749978</v>
+        <v>1.040781958628255</v>
       </c>
       <c r="J6">
-        <v>1.043544942798053</v>
+        <v>1.048840765949049</v>
       </c>
       <c r="K6">
-        <v>1.046603840451112</v>
+        <v>1.048441904496392</v>
       </c>
       <c r="L6">
-        <v>1.037125855314613</v>
+        <v>1.044698842743144</v>
       </c>
       <c r="N6">
-        <v>1.045026896313104</v>
+        <v>1.050330240140414</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023668623183198</v>
+        <v>1.044118751161126</v>
       </c>
       <c r="D7">
-        <v>1.035969654961087</v>
+        <v>1.045780406860622</v>
       </c>
       <c r="E7">
-        <v>1.026288195926126</v>
+        <v>1.041997631619159</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050321860373353</v>
+        <v>1.040690765048086</v>
       </c>
       <c r="J7">
-        <v>1.042479790738847</v>
+        <v>1.048609784592005</v>
       </c>
       <c r="K7">
-        <v>1.045649644591493</v>
+        <v>1.048239203019794</v>
       </c>
       <c r="L7">
-        <v>1.036076471254609</v>
+        <v>1.044465836267785</v>
       </c>
       <c r="N7">
-        <v>1.043960231615799</v>
+        <v>1.050098930763349</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016782183043451</v>
+        <v>1.042686115500185</v>
       </c>
       <c r="D8">
-        <v>1.030778532966632</v>
+        <v>1.044682842528707</v>
       </c>
       <c r="E8">
-        <v>1.02067730651213</v>
+        <v>1.040772876888324</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048093196339124</v>
+        <v>1.04030705939746</v>
       </c>
       <c r="J8">
-        <v>1.037914522568414</v>
+        <v>1.047642961688134</v>
       </c>
       <c r="K8">
-        <v>1.041557124530487</v>
+        <v>1.047390315284671</v>
       </c>
       <c r="L8">
-        <v>1.031584289486941</v>
+        <v>1.043491123453005</v>
       </c>
       <c r="N8">
-        <v>1.039388480240921</v>
+        <v>1.049130734860058</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00399656988562</v>
+        <v>1.040160800393929</v>
       </c>
       <c r="D9">
-        <v>1.021163531927754</v>
+        <v>1.042747611353776</v>
       </c>
       <c r="E9">
-        <v>1.010308292632752</v>
+        <v>1.038616539246249</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04388088401936</v>
+        <v>1.0396213822517</v>
       </c>
       <c r="J9">
-        <v>1.029408984052711</v>
+        <v>1.045934173955079</v>
       </c>
       <c r="K9">
-        <v>1.033922329958718</v>
+        <v>1.045888333536758</v>
       </c>
       <c r="L9">
-        <v>1.023236309952781</v>
+        <v>1.041770605095131</v>
       </c>
       <c r="N9">
-        <v>1.030870862884927</v>
+        <v>1.047419520452422</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9949785548073917</v>
+        <v>1.038476664444968</v>
       </c>
       <c r="D10">
-        <v>1.014402065174014</v>
+        <v>1.041456676811563</v>
       </c>
       <c r="E10">
-        <v>1.00303160428296</v>
+        <v>1.03718022407124</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040862117546846</v>
+        <v>1.039157852459711</v>
       </c>
       <c r="J10">
-        <v>1.02339282748834</v>
+        <v>1.044791534352907</v>
       </c>
       <c r="K10">
-        <v>1.028516065227788</v>
+        <v>1.04488289194434</v>
       </c>
       <c r="L10">
-        <v>1.017346337065652</v>
+        <v>1.040621611137144</v>
       </c>
       <c r="N10">
-        <v>1.024846162688172</v>
+        <v>1.046275258170952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9909423739990636</v>
+        <v>1.037747265545478</v>
       </c>
       <c r="D11">
-        <v>1.011381762605415</v>
+        <v>1.040897505061841</v>
       </c>
       <c r="E11">
-        <v>0.9997845103691717</v>
+        <v>1.036558579493443</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03950035317016</v>
+        <v>1.038955618056303</v>
       </c>
       <c r="J11">
-        <v>1.020696876498276</v>
+        <v>1.044295939314724</v>
       </c>
       <c r="K11">
-        <v>1.026092180847497</v>
+        <v>1.044446547202068</v>
       </c>
       <c r="L11">
-        <v>1.01471049165342</v>
+        <v>1.040123613536077</v>
       </c>
       <c r="N11">
-        <v>1.022146383138472</v>
+        <v>1.04577895933097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9894221085761036</v>
+        <v>1.037476309863005</v>
       </c>
       <c r="D12">
-        <v>1.010245128276477</v>
+        <v>1.040689775528572</v>
       </c>
       <c r="E12">
-        <v>0.9985630128931912</v>
+        <v>1.036327716458809</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038985890318347</v>
+        <v>1.038880270310508</v>
       </c>
       <c r="J12">
-        <v>1.019680989955813</v>
+        <v>1.044111729120772</v>
       </c>
       <c r="K12">
-        <v>1.025178645205781</v>
+        <v>1.044284321706285</v>
       </c>
       <c r="L12">
-        <v>1.013717795187526</v>
+        <v>1.039938563452296</v>
       </c>
       <c r="N12">
-        <v>1.021129053920595</v>
+        <v>1.045594487537412</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9897491855889521</v>
+        <v>1.037534431897421</v>
       </c>
       <c r="D13">
-        <v>1.010489622634885</v>
+        <v>1.040734335495609</v>
       </c>
       <c r="E13">
-        <v>0.9988257400101959</v>
+        <v>1.036377235398234</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039096642887151</v>
+        <v>1.038896443016492</v>
       </c>
       <c r="J13">
-        <v>1.019899570917545</v>
+        <v>1.044151248453896</v>
       </c>
       <c r="K13">
-        <v>1.025375211420775</v>
+        <v>1.044319126308198</v>
       </c>
       <c r="L13">
-        <v>1.013931361960853</v>
+        <v>1.039978260565856</v>
       </c>
       <c r="N13">
-        <v>1.021347945292364</v>
+        <v>1.045634062992523</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9908171457968018</v>
+        <v>1.03772486876819</v>
       </c>
       <c r="D14">
-        <v>1.011288114351993</v>
+        <v>1.040880334649605</v>
       </c>
       <c r="E14">
-        <v>0.9996838604152858</v>
+        <v>1.036539495397019</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039458006483732</v>
+        <v>1.038949394457744</v>
       </c>
       <c r="J14">
-        <v>1.020613203657832</v>
+        <v>1.044280714976304</v>
       </c>
       <c r="K14">
-        <v>1.026016941406599</v>
+        <v>1.044433140604238</v>
       </c>
       <c r="L14">
-        <v>1.014628717820811</v>
+        <v>1.0401083186999</v>
       </c>
       <c r="N14">
-        <v>1.022062591472997</v>
+        <v>1.045763713372242</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9914723208423758</v>
+        <v>1.037842199942711</v>
       </c>
       <c r="D15">
-        <v>1.011778108853414</v>
+        <v>1.040970285806228</v>
       </c>
       <c r="E15">
-        <v>1.000210509487609</v>
+        <v>1.036639474892725</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039679495542989</v>
+        <v>1.038981989256641</v>
       </c>
       <c r="J15">
-        <v>1.021050950163284</v>
+        <v>1.044360467117691</v>
       </c>
       <c r="K15">
-        <v>1.026410560587007</v>
+        <v>1.044503369009193</v>
       </c>
       <c r="L15">
-        <v>1.015056551465532</v>
+        <v>1.040188442316581</v>
       </c>
       <c r="N15">
-        <v>1.022500959628697</v>
+        <v>1.045843578770818</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9952435460894299</v>
+        <v>1.03852506886652</v>
       </c>
       <c r="D16">
-        <v>1.014600491496213</v>
+        <v>1.041493783233092</v>
       </c>
       <c r="E16">
-        <v>1.003244998493724</v>
+        <v>1.037221486668354</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040951306142129</v>
+        <v>1.039171241997602</v>
       </c>
       <c r="J16">
-        <v>1.023569764037231</v>
+        <v>1.044824407969654</v>
       </c>
       <c r="K16">
-        <v>1.028675121600434</v>
+        <v>1.044911830010893</v>
       </c>
       <c r="L16">
-        <v>1.017519403355541</v>
+        <v>1.040654651564586</v>
       </c>
       <c r="N16">
-        <v>1.025023350507257</v>
+        <v>1.046308178472005</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9975730821513346</v>
+        <v>1.03895337186881</v>
       </c>
       <c r="D17">
-        <v>1.016345539055237</v>
+        <v>1.041822108911184</v>
       </c>
       <c r="E17">
-        <v>1.005122059244551</v>
+        <v>1.037586644728079</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04173415925312</v>
+        <v>1.039289547450911</v>
       </c>
       <c r="J17">
-        <v>1.025124843760892</v>
+        <v>1.045115204876728</v>
       </c>
       <c r="K17">
-        <v>1.030072915628668</v>
+        <v>1.04516778384599</v>
       </c>
       <c r="L17">
-        <v>1.019040872308236</v>
+        <v>1.040946964867729</v>
       </c>
       <c r="N17">
-        <v>1.026580638622495</v>
+        <v>1.046599388344043</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.998919285512509</v>
+        <v>1.039203178682208</v>
       </c>
       <c r="D18">
-        <v>1.017354528217458</v>
+        <v>1.042013597524335</v>
       </c>
       <c r="E18">
-        <v>1.006207697603319</v>
+        <v>1.037799663168915</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042185545755131</v>
+        <v>1.039358406083439</v>
       </c>
       <c r="J18">
-        <v>1.026023183202911</v>
+        <v>1.045284742252507</v>
       </c>
       <c r="K18">
-        <v>1.030880276078669</v>
+        <v>1.045316982656242</v>
       </c>
       <c r="L18">
-        <v>1.019920131565217</v>
+        <v>1.04111742038968</v>
       </c>
       <c r="N18">
-        <v>1.027480253809563</v>
+        <v>1.046769166482342</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.99937621122383</v>
+        <v>1.039288353818648</v>
       </c>
       <c r="D19">
-        <v>1.017697088191529</v>
+        <v>1.042078887103301</v>
       </c>
       <c r="E19">
-        <v>1.006576335241082</v>
+        <v>1.037872301689513</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042338581026099</v>
+        <v>1.039381860177029</v>
       </c>
       <c r="J19">
-        <v>1.026328040089351</v>
+        <v>1.045342536632625</v>
       </c>
       <c r="K19">
-        <v>1.031154238180827</v>
+        <v>1.045367839530173</v>
       </c>
       <c r="L19">
-        <v>1.020218570315653</v>
+        <v>1.041175533539591</v>
       </c>
       <c r="N19">
-        <v>1.02778554362775</v>
+        <v>1.046827042937108</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9973244548979403</v>
+        <v>1.038907420576206</v>
       </c>
       <c r="D20">
-        <v>1.016159235137839</v>
+        <v>1.041786884554974</v>
       </c>
       <c r="E20">
-        <v>1.004921628424036</v>
+        <v>1.037547463836056</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041650711403957</v>
+        <v>1.039276869594276</v>
       </c>
       <c r="J20">
-        <v>1.024958905354971</v>
+        <v>1.045084013349584</v>
       </c>
       <c r="K20">
-        <v>1.029923772903225</v>
+        <v>1.045140332221014</v>
       </c>
       <c r="L20">
-        <v>1.018878485481365</v>
+        <v>1.040915607163458</v>
       </c>
       <c r="N20">
-        <v>1.026414464565005</v>
+        <v>1.046568152521353</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9905032503382631</v>
+        <v>1.037668790538391</v>
       </c>
       <c r="D21">
-        <v>1.011053393114906</v>
+        <v>1.040837342316826</v>
       </c>
       <c r="E21">
-        <v>0.9994315977765286</v>
+        <v>1.036491712672723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039351836197072</v>
+        <v>1.038933807897021</v>
       </c>
       <c r="J21">
-        <v>1.020403463641334</v>
+        <v>1.044242593740951</v>
       </c>
       <c r="K21">
-        <v>1.025828338458413</v>
+        <v>1.044399570312002</v>
       </c>
       <c r="L21">
-        <v>1.014423746719858</v>
+        <v>1.04007002179874</v>
       </c>
       <c r="N21">
-        <v>1.021852553601618</v>
+        <v>1.045725538000363</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9860919700239121</v>
+        <v>1.036889872750347</v>
       </c>
       <c r="D22">
-        <v>1.007757275568458</v>
+        <v>1.040240164027781</v>
       </c>
       <c r="E22">
-        <v>0.9958902848553016</v>
+        <v>1.035828171327339</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037856192198958</v>
+        <v>1.038716787101816</v>
       </c>
       <c r="J22">
-        <v>1.017454974802591</v>
+        <v>1.043712841532071</v>
       </c>
       <c r="K22">
-        <v>1.02317660989756</v>
+        <v>1.043932969700143</v>
       </c>
       <c r="L22">
-        <v>1.011543598014249</v>
+        <v>1.039537954383639</v>
       </c>
       <c r="N22">
-        <v>1.018899877570528</v>
+        <v>1.045195033482583</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9884425578492708</v>
+        <v>1.037302805553523</v>
       </c>
       <c r="D23">
-        <v>1.009513054705891</v>
+        <v>1.04055675499896</v>
       </c>
       <c r="E23">
-        <v>0.9977764158441703</v>
+        <v>1.036179903339603</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038653980470945</v>
+        <v>1.038831959485076</v>
       </c>
       <c r="J23">
-        <v>1.019026312078221</v>
+        <v>1.04399374137239</v>
       </c>
       <c r="K23">
-        <v>1.024589880867427</v>
+        <v>1.04418040451853</v>
       </c>
       <c r="L23">
-        <v>1.013078215273663</v>
+        <v>1.039820052709636</v>
       </c>
       <c r="N23">
-        <v>1.020473446325324</v>
+        <v>1.045476332232894</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9974368376169223</v>
+        <v>1.03892818403367</v>
       </c>
       <c r="D24">
-        <v>1.016243445199344</v>
+        <v>1.041802800981454</v>
       </c>
       <c r="E24">
-        <v>1.005012222907405</v>
+        <v>1.037565167908227</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041688434051232</v>
+        <v>1.039282598625905</v>
       </c>
       <c r="J24">
-        <v>1.02503391264015</v>
+        <v>1.045098107703674</v>
       </c>
       <c r="K24">
-        <v>1.02999118859214</v>
+        <v>1.045152736721269</v>
       </c>
       <c r="L24">
-        <v>1.01895188634348</v>
+        <v>1.040929776501866</v>
       </c>
       <c r="N24">
-        <v>1.026489578369132</v>
+        <v>1.046582266891042</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007384646668195</v>
+        <v>1.040813756695373</v>
       </c>
       <c r="D25">
-        <v>1.023708296605299</v>
+        <v>1.043248053618289</v>
       </c>
       <c r="E25">
-        <v>1.013049971964846</v>
+        <v>1.039173785685398</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045005507882945</v>
+        <v>1.039799776454039</v>
       </c>
       <c r="J25">
-        <v>1.031666018376497</v>
+        <v>1.046376543948611</v>
       </c>
       <c r="K25">
-        <v>1.0359493913833</v>
+        <v>1.046277358296027</v>
       </c>
       <c r="L25">
-        <v>1.025449026190232</v>
+        <v>1.042215749731474</v>
       </c>
       <c r="N25">
-        <v>1.033131102456338</v>
+        <v>1.047862518662085</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042317241594426</v>
+        <v>1.014967096787444</v>
       </c>
       <c r="D2">
-        <v>1.044400203749006</v>
+        <v>1.029411661310171</v>
       </c>
       <c r="E2">
-        <v>1.040457699264844</v>
+        <v>1.019201496885599</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040207630358473</v>
+        <v>1.047500740357119</v>
       </c>
       <c r="J2">
-        <v>1.047393714385075</v>
+        <v>1.0367091778451</v>
       </c>
       <c r="K2">
-        <v>1.047171360447787</v>
+        <v>1.040475905124884</v>
       </c>
       <c r="L2">
-        <v>1.043239992214065</v>
+        <v>1.030399651959181</v>
       </c>
       <c r="N2">
-        <v>1.04888113359724</v>
+        <v>1.038181423789866</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043408665579052</v>
+        <v>1.020287399812301</v>
       </c>
       <c r="D3">
-        <v>1.045236430196119</v>
+        <v>1.033419825948001</v>
       </c>
       <c r="E3">
-        <v>1.041390449100146</v>
+        <v>1.023530940880929</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040501075415373</v>
+        <v>1.049231517291295</v>
       </c>
       <c r="J3">
-        <v>1.048130821618611</v>
+        <v>1.040239883836082</v>
       </c>
       <c r="K3">
-        <v>1.047818751919913</v>
+        <v>1.04364223123232</v>
       </c>
       <c r="L3">
-        <v>1.04398284759735</v>
+        <v>1.033871337880795</v>
       </c>
       <c r="N3">
-        <v>1.049619287607595</v>
+        <v>1.041717143788311</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044114784836014</v>
+        <v>1.023649909106376</v>
       </c>
       <c r="D4">
-        <v>1.045777368545556</v>
+        <v>1.035955537284339</v>
       </c>
       <c r="E4">
-        <v>1.041994239347107</v>
+        <v>1.026272922870356</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040689708234716</v>
+        <v>1.050315847526932</v>
       </c>
       <c r="J4">
-        <v>1.048607110593754</v>
+        <v>1.042467402747009</v>
       </c>
       <c r="K4">
-        <v>1.048236856169141</v>
+        <v>1.045638545494083</v>
       </c>
       <c r="L4">
-        <v>1.044463139146786</v>
+        <v>1.036064269614859</v>
       </c>
       <c r="N4">
-        <v>1.050096252967714</v>
+        <v>1.043947826031592</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044411612740209</v>
+        <v>1.025045114108449</v>
       </c>
       <c r="D5">
-        <v>1.04600474136051</v>
+        <v>1.037008215357935</v>
       </c>
       <c r="E5">
-        <v>1.042248129720167</v>
+        <v>1.027411969898518</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040768711179763</v>
+        <v>1.05076343683674</v>
       </c>
       <c r="J5">
-        <v>1.048807182399437</v>
+        <v>1.043390679235943</v>
       </c>
       <c r="K5">
-        <v>1.048412435254003</v>
+        <v>1.046465663002097</v>
       </c>
       <c r="L5">
-        <v>1.044664961330264</v>
+        <v>1.036973843926489</v>
       </c>
       <c r="N5">
-        <v>1.050296608898309</v>
+        <v>1.044872413679042</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044461450022087</v>
+        <v>1.025278318309429</v>
       </c>
       <c r="D6">
-        <v>1.046042916039021</v>
+        <v>1.037184197009089</v>
       </c>
       <c r="E6">
-        <v>1.042290762364928</v>
+        <v>1.027602434044595</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040781958628255</v>
+        <v>1.050838111749978</v>
       </c>
       <c r="J6">
-        <v>1.048840765949049</v>
+        <v>1.043544942798052</v>
       </c>
       <c r="K6">
-        <v>1.048441904496392</v>
+        <v>1.046603840451111</v>
       </c>
       <c r="L6">
-        <v>1.044698842743144</v>
+        <v>1.037125855314612</v>
       </c>
       <c r="N6">
-        <v>1.050330240140414</v>
+        <v>1.045026896313103</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044118751161126</v>
+        <v>1.023668623183198</v>
       </c>
       <c r="D7">
-        <v>1.045780406860622</v>
+        <v>1.035969654961086</v>
       </c>
       <c r="E7">
-        <v>1.041997631619159</v>
+        <v>1.026288195926125</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040690765048086</v>
+        <v>1.050321860373353</v>
       </c>
       <c r="J7">
-        <v>1.048609784592005</v>
+        <v>1.042479790738846</v>
       </c>
       <c r="K7">
-        <v>1.048239203019794</v>
+        <v>1.045649644591492</v>
       </c>
       <c r="L7">
-        <v>1.044465836267785</v>
+        <v>1.036076471254608</v>
       </c>
       <c r="N7">
-        <v>1.050098930763349</v>
+        <v>1.043960231615799</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042686115500185</v>
+        <v>1.016782183043452</v>
       </c>
       <c r="D8">
-        <v>1.044682842528707</v>
+        <v>1.030778532966633</v>
       </c>
       <c r="E8">
-        <v>1.040772876888324</v>
+        <v>1.020677306512131</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04030705939746</v>
+        <v>1.048093196339125</v>
       </c>
       <c r="J8">
-        <v>1.047642961688134</v>
+        <v>1.037914522568415</v>
       </c>
       <c r="K8">
-        <v>1.047390315284671</v>
+        <v>1.041557124530488</v>
       </c>
       <c r="L8">
-        <v>1.043491123453005</v>
+        <v>1.031584289486941</v>
       </c>
       <c r="N8">
-        <v>1.049130734860058</v>
+        <v>1.039388480240921</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040160800393929</v>
+        <v>1.003996569885621</v>
       </c>
       <c r="D9">
-        <v>1.042747611353776</v>
+        <v>1.021163531927754</v>
       </c>
       <c r="E9">
-        <v>1.038616539246249</v>
+        <v>1.010308292632753</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0396213822517</v>
+        <v>1.043880884019361</v>
       </c>
       <c r="J9">
-        <v>1.045934173955079</v>
+        <v>1.029408984052712</v>
       </c>
       <c r="K9">
-        <v>1.045888333536758</v>
+        <v>1.033922329958718</v>
       </c>
       <c r="L9">
-        <v>1.041770605095131</v>
+        <v>1.023236309952782</v>
       </c>
       <c r="N9">
-        <v>1.047419520452422</v>
+        <v>1.030870862884927</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038476664444968</v>
+        <v>0.9949785548073906</v>
       </c>
       <c r="D10">
-        <v>1.041456676811563</v>
+        <v>1.014402065174013</v>
       </c>
       <c r="E10">
-        <v>1.03718022407124</v>
+        <v>1.003031604282959</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039157852459711</v>
+        <v>1.040862117546845</v>
       </c>
       <c r="J10">
-        <v>1.044791534352907</v>
+        <v>1.023392827488339</v>
       </c>
       <c r="K10">
-        <v>1.04488289194434</v>
+        <v>1.028516065227786</v>
       </c>
       <c r="L10">
-        <v>1.040621611137144</v>
+        <v>1.017346337065651</v>
       </c>
       <c r="N10">
-        <v>1.046275258170952</v>
+        <v>1.02484616268817</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037747265545478</v>
+        <v>0.9909423739990633</v>
       </c>
       <c r="D11">
-        <v>1.040897505061841</v>
+        <v>1.011381762605415</v>
       </c>
       <c r="E11">
-        <v>1.036558579493443</v>
+        <v>0.9997845103691715</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038955618056303</v>
+        <v>1.03950035317016</v>
       </c>
       <c r="J11">
-        <v>1.044295939314724</v>
+        <v>1.020696876498276</v>
       </c>
       <c r="K11">
-        <v>1.044446547202068</v>
+        <v>1.026092180847497</v>
       </c>
       <c r="L11">
-        <v>1.040123613536077</v>
+        <v>1.01471049165342</v>
       </c>
       <c r="N11">
-        <v>1.04577895933097</v>
+        <v>1.022146383138471</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037476309863005</v>
+        <v>0.9894221085761058</v>
       </c>
       <c r="D12">
-        <v>1.040689775528572</v>
+        <v>1.010245128276479</v>
       </c>
       <c r="E12">
-        <v>1.036327716458809</v>
+        <v>0.9985630128931933</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038880270310508</v>
+        <v>1.038985890318348</v>
       </c>
       <c r="J12">
-        <v>1.044111729120772</v>
+        <v>1.019680989955815</v>
       </c>
       <c r="K12">
-        <v>1.044284321706285</v>
+        <v>1.025178645205784</v>
       </c>
       <c r="L12">
-        <v>1.039938563452296</v>
+        <v>1.013717795187528</v>
       </c>
       <c r="N12">
-        <v>1.045594487537412</v>
+        <v>1.021129053920597</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037534431897421</v>
+        <v>0.9897491855889528</v>
       </c>
       <c r="D13">
-        <v>1.040734335495609</v>
+        <v>1.010489622634886</v>
       </c>
       <c r="E13">
-        <v>1.036377235398234</v>
+        <v>0.9988257400101961</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038896443016492</v>
+        <v>1.039096642887151</v>
       </c>
       <c r="J13">
-        <v>1.044151248453896</v>
+        <v>1.019899570917546</v>
       </c>
       <c r="K13">
-        <v>1.044319126308198</v>
+        <v>1.025375211420775</v>
       </c>
       <c r="L13">
-        <v>1.039978260565856</v>
+        <v>1.013931361960854</v>
       </c>
       <c r="N13">
-        <v>1.045634062992523</v>
+        <v>1.021347945292365</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03772486876819</v>
+        <v>0.9908171457968008</v>
       </c>
       <c r="D14">
-        <v>1.040880334649605</v>
+        <v>1.011288114351993</v>
       </c>
       <c r="E14">
-        <v>1.036539495397019</v>
+        <v>0.9996838604152847</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038949394457744</v>
+        <v>1.039458006483731</v>
       </c>
       <c r="J14">
-        <v>1.044280714976304</v>
+        <v>1.020613203657831</v>
       </c>
       <c r="K14">
-        <v>1.044433140604238</v>
+        <v>1.026016941406598</v>
       </c>
       <c r="L14">
-        <v>1.0401083186999</v>
+        <v>1.01462871782081</v>
       </c>
       <c r="N14">
-        <v>1.045763713372242</v>
+        <v>1.022062591472996</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037842199942711</v>
+        <v>0.9914723208423759</v>
       </c>
       <c r="D15">
-        <v>1.040970285806228</v>
+        <v>1.011778108853414</v>
       </c>
       <c r="E15">
-        <v>1.036639474892725</v>
+        <v>1.000210509487609</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038981989256641</v>
+        <v>1.039679495542989</v>
       </c>
       <c r="J15">
-        <v>1.044360467117691</v>
+        <v>1.021050950163284</v>
       </c>
       <c r="K15">
-        <v>1.044503369009193</v>
+        <v>1.026410560587007</v>
       </c>
       <c r="L15">
-        <v>1.040188442316581</v>
+        <v>1.015056551465532</v>
       </c>
       <c r="N15">
-        <v>1.045843578770818</v>
+        <v>1.022500959628697</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03852506886652</v>
+        <v>0.995243546089429</v>
       </c>
       <c r="D16">
-        <v>1.041493783233092</v>
+        <v>1.014600491496213</v>
       </c>
       <c r="E16">
-        <v>1.037221486668354</v>
+        <v>1.003244998493723</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039171241997602</v>
+        <v>1.040951306142129</v>
       </c>
       <c r="J16">
-        <v>1.044824407969654</v>
+        <v>1.02356976403723</v>
       </c>
       <c r="K16">
-        <v>1.044911830010893</v>
+        <v>1.028675121600434</v>
       </c>
       <c r="L16">
-        <v>1.040654651564586</v>
+        <v>1.01751940335554</v>
       </c>
       <c r="N16">
-        <v>1.046308178472005</v>
+        <v>1.025023350507256</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03895337186881</v>
+        <v>0.9975730821513359</v>
       </c>
       <c r="D17">
-        <v>1.041822108911184</v>
+        <v>1.016345539055238</v>
       </c>
       <c r="E17">
-        <v>1.037586644728079</v>
+        <v>1.005122059244552</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039289547450911</v>
+        <v>1.04173415925312</v>
       </c>
       <c r="J17">
-        <v>1.045115204876728</v>
+        <v>1.025124843760893</v>
       </c>
       <c r="K17">
-        <v>1.04516778384599</v>
+        <v>1.030072915628669</v>
       </c>
       <c r="L17">
-        <v>1.040946964867729</v>
+        <v>1.019040872308236</v>
       </c>
       <c r="N17">
-        <v>1.046599388344043</v>
+        <v>1.026580638622496</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039203178682208</v>
+        <v>0.9989192855125084</v>
       </c>
       <c r="D18">
-        <v>1.042013597524335</v>
+        <v>1.017354528217457</v>
       </c>
       <c r="E18">
-        <v>1.037799663168915</v>
+        <v>1.006207697603318</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039358406083439</v>
+        <v>1.042185545755131</v>
       </c>
       <c r="J18">
-        <v>1.045284742252507</v>
+        <v>1.02602318320291</v>
       </c>
       <c r="K18">
-        <v>1.045316982656242</v>
+        <v>1.030880276078668</v>
       </c>
       <c r="L18">
-        <v>1.04111742038968</v>
+        <v>1.019920131565216</v>
       </c>
       <c r="N18">
-        <v>1.046769166482342</v>
+        <v>1.027480253809562</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039288353818648</v>
+        <v>0.9993762112238298</v>
       </c>
       <c r="D19">
-        <v>1.042078887103301</v>
+        <v>1.017697088191529</v>
       </c>
       <c r="E19">
-        <v>1.037872301689513</v>
+        <v>1.006576335241082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039381860177029</v>
+        <v>1.042338581026099</v>
       </c>
       <c r="J19">
-        <v>1.045342536632625</v>
+        <v>1.026328040089351</v>
       </c>
       <c r="K19">
-        <v>1.045367839530173</v>
+        <v>1.031154238180827</v>
       </c>
       <c r="L19">
-        <v>1.041175533539591</v>
+        <v>1.020218570315653</v>
       </c>
       <c r="N19">
-        <v>1.046827042937108</v>
+        <v>1.027785543627749</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038907420576206</v>
+        <v>0.9973244548979415</v>
       </c>
       <c r="D20">
-        <v>1.041786884554974</v>
+        <v>1.01615923513784</v>
       </c>
       <c r="E20">
-        <v>1.037547463836056</v>
+        <v>1.004921628424037</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039276869594276</v>
+        <v>1.041650711403958</v>
       </c>
       <c r="J20">
-        <v>1.045084013349584</v>
+        <v>1.024958905354972</v>
       </c>
       <c r="K20">
-        <v>1.045140332221014</v>
+        <v>1.029923772903226</v>
       </c>
       <c r="L20">
-        <v>1.040915607163458</v>
+        <v>1.018878485481366</v>
       </c>
       <c r="N20">
-        <v>1.046568152521353</v>
+        <v>1.026414464565006</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037668790538391</v>
+        <v>0.9905032503382637</v>
       </c>
       <c r="D21">
-        <v>1.040837342316826</v>
+        <v>1.011053393114906</v>
       </c>
       <c r="E21">
-        <v>1.036491712672723</v>
+        <v>0.999431597776529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038933807897021</v>
+        <v>1.039351836197073</v>
       </c>
       <c r="J21">
-        <v>1.044242593740951</v>
+        <v>1.020403463641334</v>
       </c>
       <c r="K21">
-        <v>1.044399570312002</v>
+        <v>1.025828338458413</v>
       </c>
       <c r="L21">
-        <v>1.04007002179874</v>
+        <v>1.014423746719859</v>
       </c>
       <c r="N21">
-        <v>1.045725538000363</v>
+        <v>1.021852553601618</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036889872750347</v>
+        <v>0.9860919700239124</v>
       </c>
       <c r="D22">
-        <v>1.040240164027781</v>
+        <v>1.007757275568459</v>
       </c>
       <c r="E22">
-        <v>1.035828171327339</v>
+        <v>0.9958902848553016</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038716787101816</v>
+        <v>1.037856192198958</v>
       </c>
       <c r="J22">
-        <v>1.043712841532071</v>
+        <v>1.017454974802592</v>
       </c>
       <c r="K22">
-        <v>1.043932969700143</v>
+        <v>1.023176609897561</v>
       </c>
       <c r="L22">
-        <v>1.039537954383639</v>
+        <v>1.011543598014249</v>
       </c>
       <c r="N22">
-        <v>1.045195033482583</v>
+        <v>1.018899877570528</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037302805553523</v>
+        <v>0.9884425578492693</v>
       </c>
       <c r="D23">
-        <v>1.04055675499896</v>
+        <v>1.00951305470589</v>
       </c>
       <c r="E23">
-        <v>1.036179903339603</v>
+        <v>0.9977764158441692</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038831959485076</v>
+        <v>1.038653980470944</v>
       </c>
       <c r="J23">
-        <v>1.04399374137239</v>
+        <v>1.01902631207822</v>
       </c>
       <c r="K23">
-        <v>1.04418040451853</v>
+        <v>1.024589880867425</v>
       </c>
       <c r="L23">
-        <v>1.039820052709636</v>
+        <v>1.013078215273662</v>
       </c>
       <c r="N23">
-        <v>1.045476332232894</v>
+        <v>1.020473446325322</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03892818403367</v>
+        <v>0.9974368376169223</v>
       </c>
       <c r="D24">
-        <v>1.041802800981454</v>
+        <v>1.016243445199344</v>
       </c>
       <c r="E24">
-        <v>1.037565167908227</v>
+        <v>1.005012222907405</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039282598625905</v>
+        <v>1.041688434051232</v>
       </c>
       <c r="J24">
-        <v>1.045098107703674</v>
+        <v>1.02503391264015</v>
       </c>
       <c r="K24">
-        <v>1.045152736721269</v>
+        <v>1.02999118859214</v>
       </c>
       <c r="L24">
-        <v>1.040929776501866</v>
+        <v>1.01895188634348</v>
       </c>
       <c r="N24">
-        <v>1.046582266891042</v>
+        <v>1.026489578369132</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040813756695373</v>
+        <v>1.007384646668194</v>
       </c>
       <c r="D25">
-        <v>1.043248053618289</v>
+        <v>1.023708296605297</v>
       </c>
       <c r="E25">
-        <v>1.039173785685398</v>
+        <v>1.013049971964845</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039799776454039</v>
+        <v>1.045005507882944</v>
       </c>
       <c r="J25">
-        <v>1.046376543948611</v>
+        <v>1.031666018376496</v>
       </c>
       <c r="K25">
-        <v>1.046277358296027</v>
+        <v>1.035949391383298</v>
       </c>
       <c r="L25">
-        <v>1.042215749731474</v>
+        <v>1.025449026190231</v>
       </c>
       <c r="N25">
-        <v>1.047862518662085</v>
+        <v>1.033131102456337</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014967096787444</v>
+        <v>1.013965199741651</v>
       </c>
       <c r="D2">
-        <v>1.029411661310171</v>
+        <v>1.03445189592592</v>
       </c>
       <c r="E2">
-        <v>1.019201496885599</v>
+        <v>1.028536053534577</v>
+      </c>
+      <c r="F2">
+        <v>1.039771090888283</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047500740357119</v>
+        <v>1.05400440595514</v>
       </c>
       <c r="J2">
-        <v>1.0367091778451</v>
+        <v>1.035736088910244</v>
       </c>
       <c r="K2">
-        <v>1.040475905124884</v>
+        <v>1.045451252843066</v>
       </c>
       <c r="L2">
-        <v>1.030399651959181</v>
+        <v>1.039611650890715</v>
+      </c>
+      <c r="M2">
+        <v>1.050702821200897</v>
       </c>
       <c r="N2">
-        <v>1.038181423789866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015384738459033</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04870022659189</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04320824925288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020287399812301</v>
+        <v>1.018438924678892</v>
       </c>
       <c r="D3">
-        <v>1.033419825948001</v>
+        <v>1.037481474128519</v>
       </c>
       <c r="E3">
-        <v>1.023530940880929</v>
+        <v>1.032017357261236</v>
+      </c>
+      <c r="F3">
+        <v>1.04296521126961</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049231517291295</v>
+        <v>1.055054444576896</v>
       </c>
       <c r="J3">
-        <v>1.040239883836082</v>
+        <v>1.038439242757157</v>
       </c>
       <c r="K3">
-        <v>1.04364223123232</v>
+        <v>1.04765622304536</v>
       </c>
       <c r="L3">
-        <v>1.033871337880795</v>
+        <v>1.042256325985484</v>
+      </c>
+      <c r="M3">
+        <v>1.053076345520917</v>
       </c>
       <c r="N3">
-        <v>1.041717143788311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016324509567648</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050578688524977</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04476468980516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023649909106376</v>
+        <v>1.021277317698114</v>
       </c>
       <c r="D4">
-        <v>1.035955537284339</v>
+        <v>1.039405631470687</v>
       </c>
       <c r="E4">
-        <v>1.026272922870356</v>
+        <v>1.034232213542525</v>
+      </c>
+      <c r="F4">
+        <v>1.044998462322307</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050315847526932</v>
+        <v>1.055706774450341</v>
       </c>
       <c r="J4">
-        <v>1.042467402747009</v>
+        <v>1.040151974986301</v>
       </c>
       <c r="K4">
-        <v>1.045638545494083</v>
+        <v>1.049050635878909</v>
       </c>
       <c r="L4">
-        <v>1.036064269614859</v>
+        <v>1.043934321448206</v>
+      </c>
+      <c r="M4">
+        <v>1.054582514036852</v>
       </c>
       <c r="N4">
-        <v>1.043947826031592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016919758271092</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.05177070260433</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045751536043743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025045114108449</v>
+        <v>1.02246174795491</v>
       </c>
       <c r="D5">
-        <v>1.037008215357935</v>
+        <v>1.04021065418517</v>
       </c>
       <c r="E5">
-        <v>1.027411969898518</v>
+        <v>1.035158533443357</v>
+      </c>
+      <c r="F5">
+        <v>1.04584893390977</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05076343683674</v>
+        <v>1.055976936810368</v>
       </c>
       <c r="J5">
-        <v>1.043390679235943</v>
+        <v>1.040867662155691</v>
       </c>
       <c r="K5">
-        <v>1.046465663002097</v>
+        <v>1.049633778069379</v>
       </c>
       <c r="L5">
-        <v>1.036973843926489</v>
+        <v>1.044635924618552</v>
+      </c>
+      <c r="M5">
+        <v>1.0552122514414</v>
       </c>
       <c r="N5">
-        <v>1.044872413679042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01716936921792</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052269089736219</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046170972594551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025278318309429</v>
+        <v>1.022664993842869</v>
       </c>
       <c r="D6">
-        <v>1.037184197009089</v>
+        <v>1.040350837768975</v>
       </c>
       <c r="E6">
-        <v>1.027602434044595</v>
+        <v>1.035318373080405</v>
+      </c>
+      <c r="F6">
+        <v>1.045995516849709</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050838111749978</v>
+        <v>1.056024728139212</v>
       </c>
       <c r="J6">
-        <v>1.043544942798052</v>
+        <v>1.040992347965548</v>
       </c>
       <c r="K6">
-        <v>1.046603840451111</v>
+        <v>1.049736698580998</v>
       </c>
       <c r="L6">
-        <v>1.037125855314612</v>
+        <v>1.044758040231333</v>
+      </c>
+      <c r="M6">
+        <v>1.055321778709069</v>
       </c>
       <c r="N6">
-        <v>1.045026896313103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017213984551577</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.052355771834443</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046252416835292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023668623183198</v>
+        <v>1.021307008796609</v>
       </c>
       <c r="D7">
-        <v>1.035969654961086</v>
+        <v>1.039431197787593</v>
       </c>
       <c r="E7">
-        <v>1.026288195926125</v>
+        <v>1.0342576026124</v>
+      </c>
+      <c r="F7">
+        <v>1.045021246808699</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050321860373353</v>
+        <v>1.055717926718363</v>
       </c>
       <c r="J7">
-        <v>1.042479790738846</v>
+        <v>1.040175051211627</v>
       </c>
       <c r="K7">
-        <v>1.045649644591492</v>
+        <v>1.049073071984236</v>
       </c>
       <c r="L7">
-        <v>1.036076471254608</v>
+        <v>1.043956559808574</v>
+      </c>
+      <c r="M7">
+        <v>1.054602222345234</v>
       </c>
       <c r="N7">
-        <v>1.043960231615799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016930895291757</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051786300169878</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045787350444708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016782183043452</v>
+        <v>1.015506450181104</v>
       </c>
       <c r="D8">
-        <v>1.030778532966633</v>
+        <v>1.035501755189866</v>
       </c>
       <c r="E8">
-        <v>1.020677306512131</v>
+        <v>1.029736939454106</v>
+      </c>
+      <c r="F8">
+        <v>1.040871891302831</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048093196339125</v>
+        <v>1.05437428082498</v>
       </c>
       <c r="J8">
-        <v>1.037914522568415</v>
+        <v>1.036674209853677</v>
       </c>
       <c r="K8">
-        <v>1.041557124530488</v>
+        <v>1.046221383014388</v>
       </c>
       <c r="L8">
-        <v>1.031584289486941</v>
+        <v>1.040528624857699</v>
+      </c>
+      <c r="M8">
+        <v>1.051525288069919</v>
       </c>
       <c r="N8">
-        <v>1.039388480240921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015714995626236</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049351146392791</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043775543463672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003996569885621</v>
+        <v>1.004808880226346</v>
       </c>
       <c r="D9">
-        <v>1.021163531927754</v>
+        <v>1.028265265320206</v>
       </c>
       <c r="E9">
-        <v>1.010308292632753</v>
+        <v>1.021447015172091</v>
+      </c>
+      <c r="F9">
+        <v>1.033273239062749</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043880884019361</v>
+        <v>1.051781617810626</v>
       </c>
       <c r="J9">
-        <v>1.029408984052712</v>
+        <v>1.030192959944824</v>
       </c>
       <c r="K9">
-        <v>1.033922329958718</v>
+        <v>1.040915819288782</v>
       </c>
       <c r="L9">
-        <v>1.023236309952782</v>
+        <v>1.034201455566634</v>
+      </c>
+      <c r="M9">
+        <v>1.045848599849137</v>
       </c>
       <c r="N9">
-        <v>1.030870862884927</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013457313387561</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044858468935473</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040021031553625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9949785548073906</v>
+        <v>0.9974238080426988</v>
       </c>
       <c r="D10">
-        <v>1.014402065174013</v>
+        <v>1.023304992237258</v>
       </c>
       <c r="E10">
-        <v>1.003031604282959</v>
+        <v>1.015791965267185</v>
+      </c>
+      <c r="F10">
+        <v>1.028131949870623</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040862117546845</v>
+        <v>1.049940140062358</v>
       </c>
       <c r="J10">
-        <v>1.023392827488339</v>
+        <v>1.025740011888292</v>
       </c>
       <c r="K10">
-        <v>1.028516065227786</v>
+        <v>1.037265841805938</v>
       </c>
       <c r="L10">
-        <v>1.017346337065651</v>
+        <v>1.029881827062152</v>
+      </c>
+      <c r="M10">
+        <v>1.04201119466016</v>
       </c>
       <c r="N10">
-        <v>1.02484616268817</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011920908088437</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041872659309487</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037457031395316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9909423739990633</v>
+        <v>0.9947970714266686</v>
       </c>
       <c r="D11">
-        <v>1.011381762605415</v>
+        <v>1.021687755914832</v>
       </c>
       <c r="E11">
-        <v>0.9997845103691715</v>
+        <v>1.014029996565218</v>
+      </c>
+      <c r="F11">
+        <v>1.026814850364354</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03950035317016</v>
+        <v>1.049400732765683</v>
       </c>
       <c r="J11">
-        <v>1.020696876498276</v>
+        <v>1.024387911678561</v>
       </c>
       <c r="K11">
-        <v>1.026092180847497</v>
+        <v>1.036211943688845</v>
       </c>
       <c r="L11">
-        <v>1.01471049165342</v>
+        <v>1.028692090704397</v>
+      </c>
+      <c r="M11">
+        <v>1.041248196047206</v>
       </c>
       <c r="N11">
-        <v>1.022146383138471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011577121406115</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04170342519874</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036744641948052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9894221085761058</v>
+        <v>0.9940384914369947</v>
       </c>
       <c r="D12">
-        <v>1.010245128276479</v>
+        <v>1.021279506484628</v>
       </c>
       <c r="E12">
-        <v>0.9985630128931933</v>
+        <v>1.01362846640655</v>
+      </c>
+      <c r="F12">
+        <v>1.026659836898743</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038985890318348</v>
+        <v>1.049296046998983</v>
       </c>
       <c r="J12">
-        <v>1.019680989955815</v>
+        <v>1.024097313639865</v>
       </c>
       <c r="K12">
-        <v>1.025178645205784</v>
+        <v>1.036010072964963</v>
       </c>
       <c r="L12">
-        <v>1.013717795187528</v>
+        <v>1.028499142751892</v>
+      </c>
+      <c r="M12">
+        <v>1.04129350007216</v>
       </c>
       <c r="N12">
-        <v>1.021129053920597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011571484776393</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042064540601794</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036601913444694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9897491855889528</v>
+        <v>0.994690368700193</v>
       </c>
       <c r="D13">
-        <v>1.010489622634886</v>
+        <v>1.021797420588645</v>
       </c>
       <c r="E13">
-        <v>0.9988257400101961</v>
+        <v>1.014268538492835</v>
+      </c>
+      <c r="F13">
+        <v>1.02741570699991</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039096642887151</v>
+        <v>1.049536192774614</v>
       </c>
       <c r="J13">
-        <v>1.019899570917546</v>
+        <v>1.024627704133031</v>
       </c>
       <c r="K13">
-        <v>1.025375211420775</v>
+        <v>1.036475927813831</v>
       </c>
       <c r="L13">
-        <v>1.013931361960854</v>
+        <v>1.029084254071379</v>
+      </c>
+      <c r="M13">
+        <v>1.041993525589762</v>
       </c>
       <c r="N13">
-        <v>1.021347945292365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011837765258754</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042893829154615</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.036928800075327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9908171457968008</v>
+        <v>0.995784350220962</v>
       </c>
       <c r="D14">
-        <v>1.011288114351993</v>
+        <v>1.022579156161626</v>
       </c>
       <c r="E14">
-        <v>0.9996838604152847</v>
+        <v>1.015186627209169</v>
+      </c>
+      <c r="F14">
+        <v>1.028356203649986</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039458006483731</v>
+        <v>1.049860012948908</v>
       </c>
       <c r="J14">
-        <v>1.020613203657831</v>
+        <v>1.025369469254061</v>
       </c>
       <c r="K14">
-        <v>1.026016941406598</v>
+        <v>1.037103892827861</v>
       </c>
       <c r="L14">
-        <v>1.01462871782081</v>
+        <v>1.029844319440445</v>
+      </c>
+      <c r="M14">
+        <v>1.04277876373824</v>
       </c>
       <c r="N14">
-        <v>1.022062591472996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01214670127537</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043687355701589</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037374210693202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9914723208423759</v>
+        <v>0.9963655427770978</v>
       </c>
       <c r="D15">
-        <v>1.011778108853414</v>
+        <v>1.022980416082921</v>
       </c>
       <c r="E15">
-        <v>1.000210509487609</v>
+        <v>1.015647663721555</v>
+      </c>
+      <c r="F15">
+        <v>1.028798754983615</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039679495542989</v>
+        <v>1.050018677950222</v>
       </c>
       <c r="J15">
-        <v>1.021050950163284</v>
+        <v>1.025738295667518</v>
       </c>
       <c r="K15">
-        <v>1.026410560587007</v>
+        <v>1.037411993504113</v>
       </c>
       <c r="L15">
-        <v>1.015056551465532</v>
+        <v>1.030210077386296</v>
+      </c>
+      <c r="M15">
+        <v>1.043128235622843</v>
       </c>
       <c r="N15">
-        <v>1.022500959628697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012285783113527</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044001010134091</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037597900334082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.995243546089429</v>
+        <v>0.9993784007067864</v>
       </c>
       <c r="D16">
-        <v>1.014600491496213</v>
+        <v>1.024994498713442</v>
       </c>
       <c r="E16">
-        <v>1.003244998493723</v>
+        <v>1.017929819389231</v>
+      </c>
+      <c r="F16">
+        <v>1.030863242850093</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040951306142129</v>
+        <v>1.050776464376671</v>
       </c>
       <c r="J16">
-        <v>1.02356976403723</v>
+        <v>1.027539838318177</v>
       </c>
       <c r="K16">
-        <v>1.028675121600434</v>
+        <v>1.038891275374348</v>
       </c>
       <c r="L16">
-        <v>1.01751940335554</v>
+        <v>1.031946969723793</v>
+      </c>
+      <c r="M16">
+        <v>1.044661639041173</v>
       </c>
       <c r="N16">
-        <v>1.025023350507256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01289133891743</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045174417950546</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038646950398071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9975730821513359</v>
+        <v>1.001117333251189</v>
       </c>
       <c r="D17">
-        <v>1.016345539055238</v>
+        <v>1.026130546987847</v>
       </c>
       <c r="E17">
-        <v>1.005122059244552</v>
+        <v>1.019200748729638</v>
+      </c>
+      <c r="F17">
+        <v>1.031950535595533</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04173415925312</v>
+        <v>1.051184558313869</v>
       </c>
       <c r="J17">
-        <v>1.025124843760893</v>
+        <v>1.028532641600944</v>
       </c>
       <c r="K17">
-        <v>1.030072915628669</v>
+        <v>1.039695416882754</v>
       </c>
       <c r="L17">
-        <v>1.019040872308236</v>
+        <v>1.032880291384628</v>
+      </c>
+      <c r="M17">
+        <v>1.045420625153847</v>
       </c>
       <c r="N17">
-        <v>1.026580638622496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013194049645641</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045645765469618</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039218078889928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9989192855125084</v>
+        <v>1.001904816246907</v>
       </c>
       <c r="D18">
-        <v>1.017354528217457</v>
+        <v>1.026592199220036</v>
       </c>
       <c r="E18">
-        <v>1.006207697603318</v>
+        <v>1.019688682700263</v>
+      </c>
+      <c r="F18">
+        <v>1.03225256858877</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042185545755131</v>
+        <v>1.051319784020384</v>
       </c>
       <c r="J18">
-        <v>1.02602318320291</v>
+        <v>1.028896054559472</v>
       </c>
       <c r="K18">
-        <v>1.030880276078668</v>
+        <v>1.039967178342159</v>
       </c>
       <c r="L18">
-        <v>1.019920131565216</v>
+        <v>1.033176002987373</v>
+      </c>
+      <c r="M18">
+        <v>1.045536872906436</v>
       </c>
       <c r="N18">
-        <v>1.027480253809562</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013250051550096</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04550095066756</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039398631503818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9993762112238298</v>
+        <v>1.001841046843622</v>
       </c>
       <c r="D19">
-        <v>1.017697088191529</v>
+        <v>1.02645546200552</v>
       </c>
       <c r="E19">
-        <v>1.006576335241082</v>
+        <v>1.019474494831561</v>
+      </c>
+      <c r="F19">
+        <v>1.031848173899911</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042338581026099</v>
+        <v>1.051216733699301</v>
       </c>
       <c r="J19">
-        <v>1.026328040089351</v>
+        <v>1.028700459987296</v>
       </c>
       <c r="K19">
-        <v>1.031154238180827</v>
+        <v>1.039770465784901</v>
       </c>
       <c r="L19">
-        <v>1.020218570315653</v>
+        <v>1.032902544089458</v>
+      </c>
+      <c r="M19">
+        <v>1.045077192622226</v>
       </c>
       <c r="N19">
-        <v>1.027785543627749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013095122672012</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044813483367289</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039265920037929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9973244548979415</v>
+        <v>0.9993787698275025</v>
       </c>
       <c r="D20">
-        <v>1.01615923513784</v>
+        <v>1.024630345829747</v>
       </c>
       <c r="E20">
-        <v>1.004921628424037</v>
+        <v>1.017294011772636</v>
+      </c>
+      <c r="F20">
+        <v>1.029496878822882</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041650711403958</v>
+        <v>1.050443061014219</v>
       </c>
       <c r="J20">
-        <v>1.024958905354972</v>
+        <v>1.026933659877718</v>
       </c>
       <c r="K20">
-        <v>1.029923772903226</v>
+        <v>1.038253498437589</v>
       </c>
       <c r="L20">
-        <v>1.018878485481366</v>
+        <v>1.031039433673074</v>
+      </c>
+      <c r="M20">
+        <v>1.043040159944889</v>
       </c>
       <c r="N20">
-        <v>1.026414464565006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012342789713515</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042676467576503</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038197286972941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9905032503382637</v>
+        <v>0.9936908841591006</v>
       </c>
       <c r="D21">
-        <v>1.011053393114906</v>
+        <v>1.020786949669308</v>
       </c>
       <c r="E21">
-        <v>0.999431597776529</v>
+        <v>1.0129053998247</v>
+      </c>
+      <c r="F21">
+        <v>1.025454209372135</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039351836197073</v>
+        <v>1.048974753715133</v>
       </c>
       <c r="J21">
-        <v>1.020403463641334</v>
+        <v>1.023454775921203</v>
       </c>
       <c r="K21">
-        <v>1.025828338458413</v>
+        <v>1.035384925773007</v>
       </c>
       <c r="L21">
-        <v>1.014423746719859</v>
+        <v>1.027646331975555</v>
+      </c>
+      <c r="M21">
+        <v>1.039968874554802</v>
       </c>
       <c r="N21">
-        <v>1.021852553601618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011118888091275</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040205073636611</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036172342362792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9860919700239124</v>
+        <v>0.9900579799705338</v>
       </c>
       <c r="D22">
-        <v>1.007757275568459</v>
+        <v>1.018340782497482</v>
       </c>
       <c r="E22">
-        <v>0.9958902848553016</v>
+        <v>1.010123662284891</v>
+      </c>
+      <c r="F22">
+        <v>1.022912484214632</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037856192198958</v>
+        <v>1.048027682787409</v>
       </c>
       <c r="J22">
-        <v>1.017454974802592</v>
+        <v>1.021240826535479</v>
       </c>
       <c r="K22">
-        <v>1.023176609897561</v>
+        <v>1.03355745540951</v>
       </c>
       <c r="L22">
-        <v>1.011543598014249</v>
+        <v>1.025497200268687</v>
+      </c>
+      <c r="M22">
+        <v>1.038043307138835</v>
       </c>
       <c r="N22">
-        <v>1.018899877570528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010342941755454</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03868111389279</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034866768711473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9884425578492693</v>
+        <v>0.9919784807521008</v>
       </c>
       <c r="D23">
-        <v>1.00951305470589</v>
+        <v>1.019628929557621</v>
       </c>
       <c r="E23">
-        <v>0.9977764158441692</v>
+        <v>1.011590878919562</v>
+      </c>
+      <c r="F23">
+        <v>1.024253823870088</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038653980470944</v>
+        <v>1.048526228333327</v>
       </c>
       <c r="J23">
-        <v>1.01902631207822</v>
+        <v>1.022406639403364</v>
       </c>
       <c r="K23">
-        <v>1.024589880867425</v>
+        <v>1.034517263896926</v>
       </c>
       <c r="L23">
-        <v>1.013078215273662</v>
+        <v>1.026628586663832</v>
+      </c>
+      <c r="M23">
+        <v>1.039057594904587</v>
       </c>
       <c r="N23">
-        <v>1.020473446325322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010748023828553</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039483856236217</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035535768561959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9974368376169223</v>
+        <v>0.9993883307192418</v>
       </c>
       <c r="D24">
-        <v>1.016243445199344</v>
+        <v>1.02461596238318</v>
       </c>
       <c r="E24">
-        <v>1.005012222907405</v>
+        <v>1.017274394658237</v>
+      </c>
+      <c r="F24">
+        <v>1.029451956541686</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041688434051232</v>
+        <v>1.050427622219301</v>
       </c>
       <c r="J24">
-        <v>1.02503391264015</v>
+        <v>1.02690994669812</v>
       </c>
       <c r="K24">
-        <v>1.02999118859214</v>
+        <v>1.038224157680802</v>
       </c>
       <c r="L24">
-        <v>1.01895188634348</v>
+        <v>1.031004794911938</v>
+      </c>
+      <c r="M24">
+        <v>1.042980877231737</v>
       </c>
       <c r="N24">
-        <v>1.026489578369132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012318397540278</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042588868847742</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038149221900525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007384646668194</v>
+        <v>1.007653904436384</v>
       </c>
       <c r="D25">
-        <v>1.023708296605297</v>
+        <v>1.0301953185754</v>
       </c>
       <c r="E25">
-        <v>1.013049971964845</v>
+        <v>1.023649241434852</v>
+      </c>
+      <c r="F25">
+        <v>1.035289443084734</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045005507882944</v>
+        <v>1.052489742343707</v>
       </c>
       <c r="J25">
-        <v>1.031666018376496</v>
+        <v>1.031926401451158</v>
       </c>
       <c r="K25">
-        <v>1.035949391383298</v>
+        <v>1.042342300857942</v>
       </c>
       <c r="L25">
-        <v>1.025449026190231</v>
+        <v>1.035891199926534</v>
+      </c>
+      <c r="M25">
+        <v>1.047363566582007</v>
       </c>
       <c r="N25">
-        <v>1.033131102456337</v>
+        <v>1.014066762123501</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046057455356092</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041058082910393</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013965199741651</v>
+        <v>1.012830851759138</v>
       </c>
       <c r="D2">
-        <v>1.03445189592592</v>
+        <v>1.032817131811993</v>
       </c>
       <c r="E2">
-        <v>1.028536053534577</v>
+        <v>1.027542814684623</v>
       </c>
       <c r="F2">
-        <v>1.039771090888283</v>
+        <v>1.038654115303017</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05400440595514</v>
+        <v>1.053174196325945</v>
       </c>
       <c r="J2">
-        <v>1.035736088910244</v>
+        <v>1.03463445174913</v>
       </c>
       <c r="K2">
-        <v>1.045451252843066</v>
+        <v>1.043837447566234</v>
       </c>
       <c r="L2">
-        <v>1.039611650890715</v>
+        <v>1.038631320170344</v>
       </c>
       <c r="M2">
-        <v>1.050702821200897</v>
+        <v>1.049599974774944</v>
       </c>
       <c r="N2">
-        <v>1.015384738459033</v>
+        <v>1.016105515483199</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04870022659189</v>
+        <v>1.047827406859239</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04320824925288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042075884848253</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023616323699335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018438924678892</v>
+        <v>1.017042967258306</v>
       </c>
       <c r="D3">
-        <v>1.037481474128519</v>
+        <v>1.035572228679479</v>
       </c>
       <c r="E3">
-        <v>1.032017357261236</v>
+        <v>1.030796379306874</v>
       </c>
       <c r="F3">
-        <v>1.04296521126961</v>
+        <v>1.041639141680881</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055054444576896</v>
+        <v>1.054083839243043</v>
       </c>
       <c r="J3">
-        <v>1.038439242757157</v>
+        <v>1.037079565479189</v>
       </c>
       <c r="K3">
-        <v>1.04765622304536</v>
+        <v>1.045769321646301</v>
       </c>
       <c r="L3">
-        <v>1.042256325985484</v>
+        <v>1.04104981350155</v>
       </c>
       <c r="M3">
-        <v>1.053076345520917</v>
+        <v>1.05176558327636</v>
       </c>
       <c r="N3">
-        <v>1.016324509567648</v>
+        <v>1.01677601036674</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050578688524977</v>
+        <v>1.049541321614918</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04476468980516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043438946322711</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024035254727227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021277317698114</v>
+        <v>1.019717469207001</v>
       </c>
       <c r="D4">
-        <v>1.039405631470687</v>
+        <v>1.037323543121927</v>
       </c>
       <c r="E4">
-        <v>1.034232213542525</v>
+        <v>1.03286837255612</v>
       </c>
       <c r="F4">
-        <v>1.044998462322307</v>
+        <v>1.043541022469395</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055706774450341</v>
+        <v>1.054647583576358</v>
       </c>
       <c r="J4">
-        <v>1.040151974986301</v>
+        <v>1.038629903311442</v>
       </c>
       <c r="K4">
-        <v>1.049050635878909</v>
+        <v>1.046991445175336</v>
       </c>
       <c r="L4">
-        <v>1.043934321448206</v>
+        <v>1.042585651573957</v>
       </c>
       <c r="M4">
-        <v>1.054582514036852</v>
+        <v>1.053140880659516</v>
       </c>
       <c r="N4">
-        <v>1.016919758271092</v>
+        <v>1.017201164271097</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05177070260433</v>
+        <v>1.050629763057222</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045751536043743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044304052381625</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024297843684917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02246174795491</v>
+        <v>1.020833809939646</v>
       </c>
       <c r="D5">
-        <v>1.04021065418517</v>
+        <v>1.038056702555019</v>
       </c>
       <c r="E5">
-        <v>1.035158533443357</v>
+        <v>1.033735273840174</v>
       </c>
       <c r="F5">
-        <v>1.04584893390977</v>
+        <v>1.044336881340423</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055976936810368</v>
+        <v>1.054880873169304</v>
       </c>
       <c r="J5">
-        <v>1.040867662155691</v>
+        <v>1.039277964020965</v>
       </c>
       <c r="K5">
-        <v>1.049633778069379</v>
+        <v>1.047502883936708</v>
       </c>
       <c r="L5">
-        <v>1.044635924618552</v>
+        <v>1.043228070395524</v>
       </c>
       <c r="M5">
-        <v>1.0552122514414</v>
+        <v>1.053716159994653</v>
       </c>
       <c r="N5">
-        <v>1.01716936921792</v>
+        <v>1.01737953337855</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052269089736219</v>
+        <v>1.051085051658862</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046170972594551</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044673501895224</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024407756184332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022664993842869</v>
+        <v>1.021025188518435</v>
       </c>
       <c r="D6">
-        <v>1.040350837768975</v>
+        <v>1.038184526994132</v>
       </c>
       <c r="E6">
-        <v>1.035318373080405</v>
+        <v>1.033884722484095</v>
       </c>
       <c r="F6">
-        <v>1.045995516849709</v>
+        <v>1.044474001931295</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056024728139212</v>
+        <v>1.054922321926102</v>
       </c>
       <c r="J6">
-        <v>1.040992347965548</v>
+        <v>1.039390861759045</v>
       </c>
       <c r="K6">
-        <v>1.049736698580998</v>
+        <v>1.047593471359884</v>
       </c>
       <c r="L6">
-        <v>1.044758040231333</v>
+        <v>1.043339835526406</v>
       </c>
       <c r="M6">
-        <v>1.055321778709069</v>
+        <v>1.053816251062046</v>
       </c>
       <c r="N6">
-        <v>1.017213984551577</v>
+        <v>1.017411392587535</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052355771834443</v>
+        <v>1.051164265882385</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046252416835292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044747096889862</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024427935851932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021307008796609</v>
+        <v>1.019755418954939</v>
       </c>
       <c r="D7">
-        <v>1.039431197787593</v>
+        <v>1.037354389534867</v>
       </c>
       <c r="E7">
-        <v>1.0342576026124</v>
+        <v>1.032900656522505</v>
       </c>
       <c r="F7">
-        <v>1.045021246808699</v>
+        <v>1.043568890743813</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055717926718363</v>
+        <v>1.05466141735962</v>
       </c>
       <c r="J7">
-        <v>1.040175051211627</v>
+        <v>1.038661021153207</v>
       </c>
       <c r="K7">
-        <v>1.049073071984236</v>
+        <v>1.047019094186575</v>
       </c>
       <c r="L7">
-        <v>1.043956559808574</v>
+        <v>1.042614702069276</v>
       </c>
       <c r="M7">
-        <v>1.054602222345234</v>
+        <v>1.053165611451232</v>
       </c>
       <c r="N7">
-        <v>1.016930895291757</v>
+        <v>1.017238493302932</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051786300169878</v>
+        <v>1.05064933555039</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045787350444708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044345556663768</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024306762318137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015506450181104</v>
+        <v>1.014313249506017</v>
       </c>
       <c r="D8">
-        <v>1.035501755189866</v>
+        <v>1.033794269102526</v>
       </c>
       <c r="E8">
-        <v>1.029736939454106</v>
+        <v>1.028691885009514</v>
       </c>
       <c r="F8">
-        <v>1.040871891302831</v>
+        <v>1.039703100209528</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05437428082498</v>
+        <v>1.05350683795515</v>
       </c>
       <c r="J8">
-        <v>1.036674209853677</v>
+        <v>1.035514247951797</v>
       </c>
       <c r="K8">
-        <v>1.046221383014388</v>
+        <v>1.044535135351851</v>
       </c>
       <c r="L8">
-        <v>1.040528624857699</v>
+        <v>1.039496741010365</v>
       </c>
       <c r="M8">
-        <v>1.051525288069919</v>
+        <v>1.050370839464517</v>
       </c>
       <c r="N8">
-        <v>1.015714995626236</v>
+        <v>1.016430772444397</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049351146392791</v>
+        <v>1.048437488204769</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043775543463672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04259422715084</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023773663423427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004808880226346</v>
+        <v>1.004260345488965</v>
       </c>
       <c r="D9">
-        <v>1.028265265320206</v>
+        <v>1.027226086930489</v>
       </c>
       <c r="E9">
-        <v>1.021447015172091</v>
+        <v>1.020961900590106</v>
       </c>
       <c r="F9">
-        <v>1.033273239062749</v>
+        <v>1.03261634462533</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051781617810626</v>
+        <v>1.051254924760294</v>
       </c>
       <c r="J9">
-        <v>1.030192959944824</v>
+        <v>1.029663551792886</v>
       </c>
       <c r="K9">
-        <v>1.040915819288782</v>
+        <v>1.039892360867202</v>
       </c>
       <c r="L9">
-        <v>1.034201455566634</v>
+        <v>1.033723799929396</v>
       </c>
       <c r="M9">
-        <v>1.045848599849137</v>
+        <v>1.045201515607747</v>
       </c>
       <c r="N9">
-        <v>1.013457313387561</v>
+        <v>1.014834467466304</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044858468935473</v>
+        <v>1.044346348037204</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040021031553625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039308078099165</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022751500290491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9974238080426988</v>
+        <v>0.9973748669754902</v>
       </c>
       <c r="D10">
-        <v>1.023304992237258</v>
+        <v>1.022763291096924</v>
       </c>
       <c r="E10">
-        <v>1.015791965267185</v>
+        <v>1.015737599029691</v>
       </c>
       <c r="F10">
-        <v>1.028131949870623</v>
+        <v>1.02786276562564</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049940140062358</v>
+        <v>1.049666002679381</v>
       </c>
       <c r="J10">
-        <v>1.025740011888292</v>
+        <v>1.025693026960451</v>
       </c>
       <c r="K10">
-        <v>1.037265841805938</v>
+        <v>1.036733360770804</v>
       </c>
       <c r="L10">
-        <v>1.029881827062152</v>
+        <v>1.029828403391302</v>
       </c>
       <c r="M10">
-        <v>1.04201119466016</v>
+        <v>1.041746535235473</v>
       </c>
       <c r="N10">
-        <v>1.011920908088437</v>
+        <v>1.01387633024984</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041872659309487</v>
+        <v>1.041663212441469</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037457031395316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037092917132804</v>
+      </c>
+      <c r="S10">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T10">
+        <v>1.022056148853614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9947970714266686</v>
+        <v>0.9949461964656637</v>
       </c>
       <c r="D11">
-        <v>1.021687755914832</v>
+        <v>1.02133349001496</v>
       </c>
       <c r="E11">
-        <v>1.014029996565218</v>
+        <v>1.014136197311036</v>
       </c>
       <c r="F11">
-        <v>1.026814850364354</v>
+        <v>1.026692830019128</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049400732765683</v>
+        <v>1.04922156224011</v>
       </c>
       <c r="J11">
-        <v>1.024387911678561</v>
+        <v>1.024530741469518</v>
       </c>
       <c r="K11">
-        <v>1.036211943688845</v>
+        <v>1.035863998426658</v>
       </c>
       <c r="L11">
-        <v>1.028692090704397</v>
+        <v>1.028796360382216</v>
       </c>
       <c r="M11">
-        <v>1.041248196047206</v>
+        <v>1.04112832400118</v>
       </c>
       <c r="N11">
-        <v>1.011577121406115</v>
+        <v>1.013873696092026</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04170342519874</v>
+        <v>1.041608607871618</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036744641948052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036514218419021</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02192945753339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9940384914369947</v>
+        <v>0.9942321579417535</v>
       </c>
       <c r="D12">
-        <v>1.021279506484628</v>
+        <v>1.020968823739494</v>
       </c>
       <c r="E12">
-        <v>1.01362846640655</v>
+        <v>1.013764795700069</v>
       </c>
       <c r="F12">
-        <v>1.026659836898743</v>
+        <v>1.026570099577336</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049296046998983</v>
+        <v>1.049138953639107</v>
       </c>
       <c r="J12">
-        <v>1.024097313639865</v>
+        <v>1.024282645187483</v>
       </c>
       <c r="K12">
-        <v>1.036010072964963</v>
+        <v>1.035705026395657</v>
       </c>
       <c r="L12">
-        <v>1.028499142751892</v>
+        <v>1.028632951387203</v>
       </c>
       <c r="M12">
-        <v>1.04129350007216</v>
+        <v>1.041205368161548</v>
       </c>
       <c r="N12">
-        <v>1.011571484776393</v>
+        <v>1.01396911920466</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042064540601794</v>
+        <v>1.041994852772051</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036601913444694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036401822824741</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021938224453476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.994690368700193</v>
+        <v>0.994795629750945</v>
       </c>
       <c r="D13">
-        <v>1.021797420588645</v>
+        <v>1.02141031628792</v>
       </c>
       <c r="E13">
-        <v>1.014268538492835</v>
+        <v>1.014322159497473</v>
       </c>
       <c r="F13">
-        <v>1.02741570699991</v>
+        <v>1.02726091504016</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049536192774614</v>
+        <v>1.049340445000264</v>
       </c>
       <c r="J13">
-        <v>1.024627704133031</v>
+        <v>1.024728459452188</v>
       </c>
       <c r="K13">
-        <v>1.036475927813831</v>
+        <v>1.036095814071695</v>
       </c>
       <c r="L13">
-        <v>1.029084254071379</v>
+        <v>1.029136888489494</v>
       </c>
       <c r="M13">
-        <v>1.041993525589762</v>
+        <v>1.041841488597949</v>
       </c>
       <c r="N13">
-        <v>1.011837765258754</v>
+        <v>1.014116859951931</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042893829154615</v>
+        <v>1.042773640205381</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036928800075327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03667538695403</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02205833093975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.995784350220962</v>
+        <v>0.9957693522253619</v>
       </c>
       <c r="D14">
-        <v>1.022579156161626</v>
+        <v>1.022085796454042</v>
       </c>
       <c r="E14">
-        <v>1.015186627209169</v>
+        <v>1.015133396897066</v>
       </c>
       <c r="F14">
-        <v>1.028356203649986</v>
+        <v>1.028113398817976</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049860012948908</v>
+        <v>1.049610490965774</v>
       </c>
       <c r="J14">
-        <v>1.025369469254061</v>
+        <v>1.025355103657815</v>
       </c>
       <c r="K14">
-        <v>1.037103892827861</v>
+        <v>1.036619328497387</v>
       </c>
       <c r="L14">
-        <v>1.029844319440445</v>
+        <v>1.029792055617275</v>
       </c>
       <c r="M14">
-        <v>1.04277876373824</v>
+        <v>1.042540223349648</v>
       </c>
       <c r="N14">
-        <v>1.01214670127537</v>
+        <v>1.014245839121612</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043687355701589</v>
+        <v>1.043498809017636</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037374210693202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037047079009072</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022193426475206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9963655427770978</v>
+        <v>0.9962924130005759</v>
       </c>
       <c r="D15">
-        <v>1.022980416082921</v>
+        <v>1.022435020306713</v>
       </c>
       <c r="E15">
-        <v>1.015647663721555</v>
+        <v>1.015544048281163</v>
       </c>
       <c r="F15">
-        <v>1.028798754983615</v>
+        <v>1.028513408397812</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050018677950222</v>
+        <v>1.049742809144917</v>
       </c>
       <c r="J15">
-        <v>1.025738295667518</v>
+        <v>1.025668221559531</v>
       </c>
       <c r="K15">
-        <v>1.037411993504113</v>
+        <v>1.036876245276192</v>
       </c>
       <c r="L15">
-        <v>1.030210077386296</v>
+        <v>1.030108328322472</v>
       </c>
       <c r="M15">
-        <v>1.043128235622843</v>
+        <v>1.042847861252254</v>
       </c>
       <c r="N15">
-        <v>1.012285783113527</v>
+        <v>1.014295291864151</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044001010134091</v>
+        <v>1.043779402900721</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037597900334082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037235147429284</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022254249779145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9993784007067864</v>
+        <v>0.9990388297965945</v>
       </c>
       <c r="D16">
-        <v>1.024994498713442</v>
+        <v>1.024203972965512</v>
       </c>
       <c r="E16">
-        <v>1.017929819389231</v>
+        <v>1.017600499572399</v>
       </c>
       <c r="F16">
-        <v>1.030863242850093</v>
+        <v>1.030381078933619</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050776464376671</v>
+        <v>1.050376364298522</v>
       </c>
       <c r="J16">
-        <v>1.027539838318177</v>
+        <v>1.027213727059557</v>
       </c>
       <c r="K16">
-        <v>1.038891275374348</v>
+        <v>1.038114112759867</v>
       </c>
       <c r="L16">
-        <v>1.031946969723793</v>
+        <v>1.031623313835577</v>
       </c>
       <c r="M16">
-        <v>1.044661639041173</v>
+        <v>1.044187503431204</v>
       </c>
       <c r="N16">
-        <v>1.01289133891743</v>
+        <v>1.014493523050916</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045174417950546</v>
+        <v>1.044799651517127</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038646950398071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038113803596962</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022520517846371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001117333251189</v>
+        <v>1.000648052566523</v>
       </c>
       <c r="D17">
-        <v>1.026130546987847</v>
+        <v>1.025215340713446</v>
       </c>
       <c r="E17">
-        <v>1.019200748729638</v>
+        <v>1.018763380475109</v>
       </c>
       <c r="F17">
-        <v>1.031950535595533</v>
+        <v>1.031370494726317</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051184558313869</v>
+        <v>1.050721180691258</v>
       </c>
       <c r="J17">
-        <v>1.028532641600944</v>
+        <v>1.028081349828936</v>
       </c>
       <c r="K17">
-        <v>1.039695416882754</v>
+        <v>1.038795240961949</v>
       </c>
       <c r="L17">
-        <v>1.032880291384628</v>
+        <v>1.032450228042462</v>
       </c>
       <c r="M17">
-        <v>1.045420625153847</v>
+        <v>1.044849968814025</v>
       </c>
       <c r="N17">
-        <v>1.013194049645641</v>
+        <v>1.014608115600895</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045645765469618</v>
+        <v>1.045194662318775</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039218078889928</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038598202495141</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02265491210323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001904816246907</v>
+        <v>1.001399489604155</v>
       </c>
       <c r="D18">
-        <v>1.026592199220036</v>
+        <v>1.025636873239807</v>
       </c>
       <c r="E18">
-        <v>1.019688682700263</v>
+        <v>1.019224915321576</v>
       </c>
       <c r="F18">
-        <v>1.03225256858877</v>
+        <v>1.031643493306737</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051319784020384</v>
+        <v>1.050835990164085</v>
       </c>
       <c r="J18">
-        <v>1.028896054559472</v>
+        <v>1.028409729966952</v>
       </c>
       <c r="K18">
-        <v>1.039967178342159</v>
+        <v>1.03902728267302</v>
       </c>
       <c r="L18">
-        <v>1.033176002987373</v>
+        <v>1.032719852668384</v>
       </c>
       <c r="M18">
-        <v>1.045536872906436</v>
+        <v>1.044937493322935</v>
       </c>
       <c r="N18">
-        <v>1.013250051550096</v>
+        <v>1.014611623218257</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04550095066756</v>
+        <v>1.045027043750729</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039398631503818</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038749535160499</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022676386864572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001841046843622</v>
+        <v>1.001375817866985</v>
       </c>
       <c r="D19">
-        <v>1.02645546200552</v>
+        <v>1.025531329125925</v>
       </c>
       <c r="E19">
-        <v>1.019474494831561</v>
+        <v>1.019051025595739</v>
       </c>
       <c r="F19">
-        <v>1.031848173899911</v>
+        <v>1.031267359026042</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051216733699301</v>
+        <v>1.050748707343689</v>
       </c>
       <c r="J19">
-        <v>1.028700459987296</v>
+        <v>1.028252625122119</v>
       </c>
       <c r="K19">
-        <v>1.039770465784901</v>
+        <v>1.038861184348115</v>
       </c>
       <c r="L19">
-        <v>1.032902544089458</v>
+        <v>1.032485996296757</v>
       </c>
       <c r="M19">
-        <v>1.045077192622226</v>
+        <v>1.044505583305659</v>
       </c>
       <c r="N19">
-        <v>1.013095122672012</v>
+        <v>1.014502077735508</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044813483367289</v>
+        <v>1.044361386950114</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039265920037929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038639094579282</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022599323533722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9993787698275025</v>
+        <v>0.9991642849805659</v>
       </c>
       <c r="D20">
-        <v>1.024630345829747</v>
+        <v>1.023934675345554</v>
       </c>
       <c r="E20">
-        <v>1.017294011772636</v>
+        <v>1.01709655787271</v>
       </c>
       <c r="F20">
-        <v>1.029496878822882</v>
+        <v>1.029103566993309</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050443061014219</v>
+        <v>1.050090868611308</v>
       </c>
       <c r="J20">
-        <v>1.026933659877718</v>
+        <v>1.026727460094892</v>
       </c>
       <c r="K20">
-        <v>1.038253498437589</v>
+        <v>1.037569325401554</v>
       </c>
       <c r="L20">
-        <v>1.031039433673074</v>
+        <v>1.03084530202711</v>
       </c>
       <c r="M20">
-        <v>1.043040159944889</v>
+        <v>1.042653267245889</v>
       </c>
       <c r="N20">
-        <v>1.012342789713515</v>
+        <v>1.014061813029848</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042676467576503</v>
+        <v>1.042370283841668</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038197286972941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03773001601486</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022243796403596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9936908841591006</v>
+        <v>0.994023244043723</v>
       </c>
       <c r="D21">
-        <v>1.020786949669308</v>
+        <v>1.020587222793436</v>
       </c>
       <c r="E21">
-        <v>1.0129053998247</v>
+        <v>1.013181337144259</v>
       </c>
       <c r="F21">
-        <v>1.025454209372135</v>
+        <v>1.025465857803435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048974753715133</v>
+        <v>1.048873751159498</v>
       </c>
       <c r="J21">
-        <v>1.023454775921203</v>
+        <v>1.023772993916978</v>
       </c>
       <c r="K21">
-        <v>1.035384925773007</v>
+        <v>1.035188786126771</v>
       </c>
       <c r="L21">
-        <v>1.027646331975555</v>
+        <v>1.027917215403495</v>
       </c>
       <c r="M21">
-        <v>1.039968874554802</v>
+        <v>1.039980316291695</v>
       </c>
       <c r="N21">
-        <v>1.011118888091275</v>
+        <v>1.013680348338565</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040205073636611</v>
+        <v>1.040214129007865</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036172342362792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036050465917883</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02171769605885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9900579799705338</v>
+        <v>0.990739444590335</v>
       </c>
       <c r="D22">
-        <v>1.018340782497482</v>
+        <v>1.01845758079418</v>
       </c>
       <c r="E22">
-        <v>1.010123662284891</v>
+        <v>1.010702032730929</v>
       </c>
       <c r="F22">
-        <v>1.022912484214632</v>
+        <v>1.023183051478477</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048027682787409</v>
+        <v>1.048086707398107</v>
       </c>
       <c r="J22">
-        <v>1.021240826535479</v>
+        <v>1.021891543301416</v>
       </c>
       <c r="K22">
-        <v>1.03355745540951</v>
+        <v>1.033672047864949</v>
       </c>
       <c r="L22">
-        <v>1.025497200268687</v>
+        <v>1.026064420307194</v>
       </c>
       <c r="M22">
-        <v>1.038043307138835</v>
+        <v>1.038308824916382</v>
       </c>
       <c r="N22">
-        <v>1.010342941755454</v>
+        <v>1.013433127037564</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03868111389279</v>
+        <v>1.038891253912476</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034866768711473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034963302126723</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021382283906526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9919784807521008</v>
+        <v>0.9924582899798655</v>
       </c>
       <c r="D23">
-        <v>1.019628929557621</v>
+        <v>1.019566139714535</v>
       </c>
       <c r="E23">
-        <v>1.011590878919562</v>
+        <v>1.011994552208046</v>
       </c>
       <c r="F23">
-        <v>1.024253823870088</v>
+        <v>1.024376165339734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048526228333327</v>
+        <v>1.048494485619128</v>
       </c>
       <c r="J23">
-        <v>1.022406639403364</v>
+        <v>1.022865457055874</v>
       </c>
       <c r="K23">
-        <v>1.034517263896926</v>
+        <v>1.03445562900413</v>
       </c>
       <c r="L23">
-        <v>1.026628586663832</v>
+        <v>1.027024684479929</v>
       </c>
       <c r="M23">
-        <v>1.039057594904587</v>
+        <v>1.039177712924007</v>
       </c>
       <c r="N23">
-        <v>1.010748023828553</v>
+        <v>1.013513719474676</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039483856236217</v>
+        <v>1.039578921722883</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035535768561959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035506757271338</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021552008230711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9993883307192418</v>
+        <v>0.9991789323451441</v>
       </c>
       <c r="D24">
-        <v>1.02461596238318</v>
+        <v>1.023923583959595</v>
       </c>
       <c r="E24">
-        <v>1.017274394658237</v>
+        <v>1.017082382742626</v>
       </c>
       <c r="F24">
-        <v>1.029451956541686</v>
+        <v>1.029062134750623</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050427622219301</v>
+        <v>1.050077090935494</v>
       </c>
       <c r="J24">
-        <v>1.02690994669812</v>
+        <v>1.026708625269944</v>
       </c>
       <c r="K24">
-        <v>1.038224157680802</v>
+        <v>1.037543208011877</v>
       </c>
       <c r="L24">
-        <v>1.031004794911938</v>
+        <v>1.030816009679723</v>
       </c>
       <c r="M24">
-        <v>1.042980877231737</v>
+        <v>1.042597410162399</v>
       </c>
       <c r="N24">
-        <v>1.012318397540278</v>
+        <v>1.014042244689133</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042588868847742</v>
+        <v>1.042285381185819</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038149221900525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03768155800555</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022229300407502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007653904436384</v>
+        <v>1.006917334554262</v>
       </c>
       <c r="D25">
-        <v>1.0301953185754</v>
+        <v>1.028967594938583</v>
       </c>
       <c r="E25">
-        <v>1.023649241434852</v>
+        <v>1.023000982984154</v>
       </c>
       <c r="F25">
-        <v>1.035289443084734</v>
+        <v>1.034485867167389</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052489742343707</v>
+        <v>1.051867115443805</v>
       </c>
       <c r="J25">
-        <v>1.031926401451158</v>
+        <v>1.031214124456052</v>
       </c>
       <c r="K25">
-        <v>1.042342300857942</v>
+        <v>1.041132273446002</v>
       </c>
       <c r="L25">
-        <v>1.035891199926534</v>
+        <v>1.035252430925108</v>
       </c>
       <c r="M25">
-        <v>1.047363566582007</v>
+        <v>1.046571423512217</v>
       </c>
       <c r="N25">
-        <v>1.014066762123501</v>
+        <v>1.015229669494689</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046057455356092</v>
+        <v>1.045430531745768</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041058082910393</v>
+        <v>1.040216016999378</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023028698015443</v>
       </c>
     </row>
   </sheetData>
